--- a/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02C8BEC7-2697-40D7-9956-7D393949709B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA3B5E0-3AAE-49F9-B7B2-6FA65E50CC03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
   <si>
-    <t>Net Plant Capacity (kW)</t>
-  </si>
-  <si>
     <t>Fuel Heating Value (kJ/kg)</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
   </si>
   <si>
     <t>Depreciation</t>
-  </si>
-  <si>
-    <t>Capacity Income</t>
   </si>
   <si>
     <t>Interest on Debt Reserve</t>
@@ -737,20 +731,26 @@
   </si>
   <si>
     <t>Same values are highlighted in yellow:</t>
+  </si>
+  <si>
+    <t>Income--Capacity</t>
+  </si>
+  <si>
+    <t>Net Electrical Capacity (kWe)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
@@ -796,11 +796,6 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1192,8 +1187,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1212,10 +1207,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,9 +1222,9 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1250,10 +1245,10 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1264,11 +1259,11 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1283,7 +1278,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1305,7 +1300,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1342,7 +1337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,7 +1362,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,7 +1377,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,16 +1386,16 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1407,7 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1416,7 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4567,7 +4562,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor indexed="12"/>
   </sheetPr>
@@ -4582,7 +4577,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor indexed="13"/>
   </sheetPr>
@@ -5541,14 +5536,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -5579,45 +5574,45 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="20.25">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M2"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" thickBot="1"/>
     <row r="9" spans="1:13" ht="28.5" customHeight="1">
       <c r="B9" s="70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
@@ -5628,11 +5623,11 @@
     </row>
     <row r="10" spans="1:13" ht="12.75" thickBot="1">
       <c r="B10" s="66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="16"/>
@@ -5641,11 +5636,11 @@
     </row>
     <row r="11" spans="1:13" ht="24">
       <c r="B11" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="83"/>
@@ -5657,7 +5652,7 @@
         <v>8000</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D12" s="36">
         <f>B12*1.055056/0.4535924</f>
@@ -5670,11 +5665,11 @@
     </row>
     <row r="13" spans="1:13" ht="24">
       <c r="B13" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="84"/>
       <c r="G13" s="85"/>
@@ -5687,7 +5682,7 @@
         <v>26.460859977949283</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="38">
         <v>24</v>
@@ -5699,11 +5694,11 @@
     </row>
     <row r="15" spans="1:13" ht="24">
       <c r="B15" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F15" s="84"/>
       <c r="G15" s="85"/>
@@ -5715,7 +5710,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="39">
         <f>B16/0.907</f>
@@ -5740,16 +5735,16 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B20" s="3"/>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="12">
         <v>70000000</v>
@@ -5761,91 +5756,91 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="115" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="B24" s="11">
         <v>25000</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="11">
         <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="24">
         <f>CapacityFactor/100*8760</f>
         <v>7446</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="11">
         <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="11">
         <v>18608</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="24">
         <f>NetPlantCapacity/(NetStationEfficiency/100)*3600/FuelHeatingValue/1000</f>
         <v>24.183147033533967</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="12">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B31" s="24">
         <f>NetPlantCapacity*8760*CapacityFactor/100</f>
@@ -5854,31 +5849,31 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B32" s="80">
         <f>CapitalCost/NetPlantCapacity</f>
         <v>2800</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" s="24">
         <f>FuelConsumptionRate*AnnualHours</f>
         <v>180067.71281169393</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B34" s="24">
         <f>AnnualFuelConsumption*FuelAshConcentration/100</f>
@@ -5891,16 +5886,16 @@
     </row>
     <row r="36" spans="1:5" ht="24">
       <c r="A36" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="79">
         <v>22.05</v>
@@ -5910,13 +5905,13 @@
         <v>2.1329535683576963E-2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B38" s="78">
         <v>2000000</v>
@@ -5926,13 +5921,13 @@
         <v>1.0744023636852002E-2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B39" s="78">
         <v>1500000</v>
@@ -5942,13 +5937,13 @@
         <v>8.0580177276390001E-3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B40" s="78">
         <v>1400000</v>
@@ -5958,13 +5953,13 @@
         <v>7.5208165457964007E-3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B41" s="78">
         <v>200000</v>
@@ -5974,13 +5969,13 @@
         <v>1.0744023636852001E-3</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B42" s="78">
         <v>100000</v>
@@ -5990,13 +5985,13 @@
         <v>5.3720118184260007E-4</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B43" s="78">
         <v>200000</v>
@@ -6006,13 +6001,13 @@
         <v>1.0744023636852001E-3</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B44" s="78">
         <v>400000</v>
@@ -6022,13 +6017,13 @@
         <v>2.1488047273704003E-3</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B45" s="24">
         <f>LaborCost+MaintenanceCost+InsurancePropertyTax+Utilities+AshDisposal+Management+OtherOperatingExpenses</f>
@@ -6042,7 +6037,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B46" s="24">
         <f>FuelCost*AnnualFuelConsumption+TotalNonFuelExpenses</f>
@@ -6059,53 +6054,53 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49" s="13">
         <v>34</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" s="13">
         <v>9.6</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B51" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B52" s="41">
         <f>StateTaxRate+FederalTaxRate*(1-StateTaxRate/100)</f>
         <v>40.335999999999999</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -6113,35 +6108,35 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="14">
         <v>166</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="13">
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" s="24">
         <f>CapacityPayment*NetPlantCapacity</f>
@@ -6150,7 +6145,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="24">
         <f>DebtReserve*InterestRateonDebtReserve/100</f>
@@ -6162,52 +6157,52 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B61" s="13">
         <v>2.1</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" s="13">
         <v>2.1</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" s="13">
         <v>2.1</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" s="13">
         <v>2.1</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -6215,25 +6210,25 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B66" s="15"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="13">
         <v>75</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68" s="42">
         <f>100-DebtRatio</f>
@@ -6241,48 +6236,48 @@
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B69" s="13">
         <v>5</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B70" s="23">
         <v>20</v>
       </c>
       <c r="C70" s="116"/>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B71" s="13">
         <v>15</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="42">
         <f>DebtRatio/100*InterestRateOnDebt+EquityRatio/100*CostOfEquity</f>
@@ -6290,12 +6285,12 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="24">
         <f>CapitalCost</f>
@@ -6305,7 +6300,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74" s="24">
         <f>TotalCostOfPlant*EquityRatio/100</f>
@@ -6315,7 +6310,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75" s="24">
         <f>TotalCostOfPlant*DebtRatio/100</f>
@@ -6325,7 +6320,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B76" s="43">
         <f>CostOfEquity/100*(1+CostOfEquity/100)^EconomicLife/((1+CostOfEquity/100)^EconomicLife-1)</f>
@@ -6333,12 +6328,12 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B77" s="43">
         <f>InterestRateOnDebt/100*(1+InterestRateOnDebt/100)^EconomicLife/((1+InterestRateOnDebt/100)^EconomicLife-1)</f>
@@ -6348,7 +6343,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B78" s="24">
         <f>CapitalRecoveryFactorEquity*TotalEquityCost</f>
@@ -6356,12 +6351,12 @@
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B79" s="24">
         <f>TotalDebtCost*CapitalRecoveryFactorDebt</f>
@@ -6369,12 +6364,12 @@
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="12">
         <f>AnnualDebtPayment</f>
@@ -6382,36 +6377,36 @@
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B83" s="3"/>
       <c r="D83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24">
       <c r="A84" s="73"/>
       <c r="B84" s="74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D84" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F84" s="22" t="s">
         <v>138</v>
-      </c>
-      <c r="E84" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B85" s="19">
         <f>F85</f>
@@ -6433,7 +6428,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B86" s="19">
         <f t="shared" ref="B86:B104" si="0">F86</f>
@@ -6451,7 +6446,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B87" s="19">
         <f t="shared" si="0"/>
@@ -6469,7 +6464,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88" s="19">
         <f t="shared" si="0"/>
@@ -6487,7 +6482,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="19">
         <f t="shared" si="0"/>
@@ -6505,7 +6500,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="19">
         <f t="shared" si="0"/>
@@ -6523,7 +6518,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B91" s="19">
         <f t="shared" si="0"/>
@@ -6541,7 +6536,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B92" s="19">
         <f t="shared" si="0"/>
@@ -6559,7 +6554,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B93" s="19">
         <f t="shared" si="0"/>
@@ -6577,7 +6572,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B94" s="19">
         <f t="shared" si="0"/>
@@ -6595,7 +6590,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B95" s="19">
         <f t="shared" si="0"/>
@@ -6613,7 +6608,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B96" s="19">
         <f t="shared" si="0"/>
@@ -6631,7 +6626,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B97" s="19">
         <f t="shared" si="0"/>
@@ -6649,7 +6644,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B98" s="19">
         <f t="shared" si="0"/>
@@ -6667,7 +6662,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B99" s="19">
         <f t="shared" si="0"/>
@@ -6687,7 +6682,7 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B100" s="19">
         <f t="shared" si="0"/>
@@ -6705,7 +6700,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B101" s="19">
         <f t="shared" si="0"/>
@@ -6723,7 +6718,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B102" s="19">
         <f t="shared" si="0"/>
@@ -6741,7 +6736,7 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B103" s="19">
         <f t="shared" si="0"/>
@@ -6759,7 +6754,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B104" s="19">
         <f t="shared" si="0"/>
@@ -6777,7 +6772,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" s="44">
         <f>SUM(B85:B104)</f>
@@ -6801,18 +6796,18 @@
     </row>
     <row r="107" spans="1:8" ht="24">
       <c r="A107" s="75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" s="23">
         <v>1</v>
@@ -6820,7 +6815,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109" s="23">
         <v>1</v>
@@ -6828,7 +6823,7 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B110" s="23">
         <v>1</v>
@@ -6836,7 +6831,7 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B111" s="23">
         <v>1</v>
@@ -6844,7 +6839,7 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" s="23">
         <v>1</v>
@@ -6852,7 +6847,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B113" s="23">
         <v>0</v>
@@ -6860,7 +6855,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B114" s="29">
         <v>0</v>
@@ -6868,7 +6863,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B115" s="23">
         <v>0</v>
@@ -6876,7 +6871,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B116" s="23">
         <v>0</v>
@@ -6884,7 +6879,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B117" s="23">
         <v>0</v>
@@ -6892,7 +6887,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B118" s="23">
         <v>0</v>
@@ -6900,7 +6895,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B119" s="23">
         <v>0</v>
@@ -6908,7 +6903,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B120" s="23">
         <v>0</v>
@@ -6916,7 +6911,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B121" s="23">
         <v>0</v>
@@ -6924,7 +6919,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B122" s="23">
         <v>0</v>
@@ -6932,7 +6927,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B123" s="23">
         <v>0</v>
@@ -6940,7 +6935,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B124" s="23">
         <v>0</v>
@@ -6948,7 +6943,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B125" s="23">
         <v>0</v>
@@ -6956,7 +6951,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B126" s="23">
         <v>0</v>
@@ -6964,7 +6959,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B127" s="23">
         <v>0</v>
@@ -6975,15 +6970,15 @@
     </row>
     <row r="129" spans="1:34">
       <c r="A129" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B129" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -7001,7 +6996,7 @@
     </row>
     <row r="130" spans="1:34">
       <c r="A130" s="120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B130" s="122">
         <v>1</v>
@@ -7083,12 +7078,12 @@
         <v>20</v>
       </c>
       <c r="V130" s="53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="131" spans="1:34">
       <c r="A131" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B131" s="118">
         <f>AnnualEquityRecovery</f>
@@ -7187,7 +7182,7 @@
     </row>
     <row r="132" spans="1:34">
       <c r="A132" s="55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" s="50">
         <f>CostOfEquity/100*TotalEquityCost</f>
@@ -7286,7 +7281,7 @@
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133" s="50">
         <f>EquityRecovery-EquityInterest1</f>
@@ -7385,7 +7380,7 @@
     </row>
     <row r="134" spans="1:34">
       <c r="A134" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B134" s="50">
         <f>TotalEquityCost-EquityPrincipalPaid1</f>
@@ -7468,7 +7463,7 @@
         <v>-8.7078660726547241E-8</v>
       </c>
       <c r="V134" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
@@ -7483,7 +7478,7 @@
     </row>
     <row r="135" spans="1:34">
       <c r="A135" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B135" s="118">
         <f>AnnualDebtPayment</f>
@@ -7582,7 +7577,7 @@
     </row>
     <row r="136" spans="1:34">
       <c r="A136" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B136" s="50">
         <f>InterestRateOnDebt/100*TotalDebtCost</f>
@@ -7681,7 +7676,7 @@
     </row>
     <row r="137" spans="1:34">
       <c r="A137" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B137" s="50">
         <f>DebtRecovery-DebtInterest1</f>
@@ -7780,7 +7775,7 @@
     </row>
     <row r="138" spans="1:34">
       <c r="A138" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B138" s="50">
         <f>TotalDebtCost-DebtPrincipalPaid1</f>
@@ -7863,7 +7858,7 @@
         <v>2.6542693376541138E-8</v>
       </c>
       <c r="V138" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
@@ -7878,7 +7873,7 @@
     </row>
     <row r="139" spans="1:34">
       <c r="A139" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B139" s="50">
         <f>AnnualFuelConsumption*FuelCost</f>
@@ -7977,7 +7972,7 @@
     </row>
     <row r="140" spans="1:34">
       <c r="A140" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140" s="50">
         <f>TotalNonFuelExpenses</f>
@@ -8076,7 +8071,7 @@
     </row>
     <row r="141" spans="1:34">
       <c r="A141" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" s="50">
         <f>DebtReserve</f>
@@ -8157,7 +8152,7 @@
     </row>
     <row r="142" spans="1:34">
       <c r="A142" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B142" s="118">
         <f>TotalCostOfPlant*DepreciationFraction</f>
@@ -8256,7 +8251,7 @@
     </row>
     <row r="143" spans="1:34">
       <c r="A143" s="55" t="s">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="B143" s="118">
         <f>AnnualCapacityPayment</f>
@@ -8355,7 +8350,7 @@
     </row>
     <row r="144" spans="1:34">
       <c r="A144" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B144" s="118">
         <f>AnnualDebtReserveInterest</f>
@@ -8454,7 +8449,7 @@
     </row>
     <row r="145" spans="1:35">
       <c r="A145" s="55" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B145" s="50">
         <f>((CombinedTaxRate/100)/(1-CombinedTaxRate/100))*(EquityPrincipalPaid1+DebtPrincipalPaid1+EquityInterest1-Depreciation+DebtReserve1)</f>
@@ -8553,7 +8548,7 @@
     </row>
     <row r="146" spans="1:35">
       <c r="A146" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B146" s="50">
         <f>AnnualGeneration*ProductionTaxCredit*TaxCreditFrac1</f>
@@ -8652,7 +8647,7 @@
     </row>
     <row r="147" spans="1:35">
       <c r="A147" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B147" s="50">
         <f>((CombinedTaxRate/100)/(1-CombinedTaxRate/100))*(EquityPrincipalPaid1+DebtPrincipalPaid1+EquityInterest1-Depreciation+DebtReserve1-TaxCredit1)</f>
@@ -8751,7 +8746,7 @@
     </row>
     <row r="148" spans="1:35">
       <c r="A148" s="123" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B148" s="51">
         <f>EquityRecovery+DebtRecovery+FuelCost1+NonFuelExpenses1+Taxes1+DebtReserve1-CapacityIncome-InterestOnDebtReserve</f>
@@ -8882,7 +8877,7 @@
     </row>
     <row r="150" spans="1:35">
       <c r="A150" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="61"/>
@@ -8917,7 +8912,7 @@
     </row>
     <row r="151" spans="1:35">
       <c r="A151" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B151" s="58">
         <f>CostOfEquity/100</f>
@@ -8956,7 +8951,7 @@
     </row>
     <row r="152" spans="1:35">
       <c r="A152" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B152" s="59">
         <f>EnergyRevenueRequired1*(1+CostOfEquity/100)^-B130</f>
@@ -9052,7 +9047,7 @@
     </row>
     <row r="153" spans="1:35">
       <c r="A153" s="40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B153" s="59">
         <f>SUM(B152:U152)</f>
@@ -9081,7 +9076,7 @@
     </row>
     <row r="154" spans="1:35">
       <c r="A154" s="40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B154" s="58">
         <f>B151*(1+B151)^EconomicLife/((1+B151)^EconomicLife-1)</f>
@@ -9110,7 +9105,7 @@
     </row>
     <row r="155" spans="1:35" ht="12.75" thickBot="1">
       <c r="A155" s="46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B155" s="60">
         <f>TotalPresentWorth*CapitalRecoveryFactorCurrent</f>
@@ -9152,7 +9147,7 @@
     </row>
     <row r="156" spans="1:35" ht="12.75" thickBot="1">
       <c r="A156" s="71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B156" s="72">
         <f>CurrentLevelAnnualRevenueRequirements/AnnualGeneration</f>
@@ -9210,7 +9205,7 @@
     </row>
     <row r="158" spans="1:35">
       <c r="A158" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B158" s="20"/>
       <c r="F158" s="4"/>
@@ -9229,7 +9224,7 @@
     </row>
     <row r="159" spans="1:35">
       <c r="A159" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B159" s="43">
         <f>(1+CostOfEquity/100)/(1+GeneralInflation/100)-1</f>
@@ -9252,7 +9247,7 @@
     </row>
     <row r="160" spans="1:35">
       <c r="A160" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B160" s="43">
         <f>B159*(1+B159)^B70/((1+B159)^B70-1)</f>
@@ -9274,7 +9269,7 @@
     </row>
     <row r="161" spans="1:57" ht="12.75" thickBot="1">
       <c r="A161" s="46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B161" s="47">
         <f>TotalPresentWorth*CapitalRecoveryFactorConstant</f>
@@ -9296,7 +9291,7 @@
     </row>
     <row r="162" spans="1:57" ht="12.75" thickBot="1">
       <c r="A162" s="71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B162" s="72">
         <f>ConstantLevelAnnualRevenueRequirements/AnnualGeneration</f>
@@ -9440,7 +9435,7 @@
     </row>
     <row r="169" spans="1:57" ht="15">
       <c r="A169" s="89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -9501,7 +9496,7 @@
     </row>
     <row r="170" spans="1:57">
       <c r="A170" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9546,7 +9541,7 @@
     </row>
     <row r="172" spans="1:57">
       <c r="B172" s="124" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C172" s="125"/>
       <c r="D172" s="125"/>
@@ -9554,7 +9549,7 @@
       <c r="F172" s="125"/>
       <c r="G172" s="126"/>
       <c r="I172" s="124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J172" s="125"/>
       <c r="K172" s="125"/>
@@ -9562,7 +9557,7 @@
       <c r="M172" s="125"/>
       <c r="N172" s="126"/>
       <c r="P172" s="124" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q172" s="125"/>
       <c r="R172" s="125"/>
@@ -9570,7 +9565,7 @@
       <c r="T172" s="125"/>
       <c r="U172" s="126"/>
       <c r="W172" s="124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="X172" s="125"/>
       <c r="Y172" s="125"/>
@@ -9578,7 +9573,7 @@
       <c r="AA172" s="125"/>
       <c r="AB172" s="126"/>
       <c r="AD172" s="124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE172" s="125"/>
       <c r="AF172" s="125"/>
@@ -9586,7 +9581,7 @@
       <c r="AH172" s="125"/>
       <c r="AI172" s="126"/>
       <c r="AK172" s="124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AL172" s="125"/>
       <c r="AM172" s="125"/>
@@ -9594,7 +9589,7 @@
       <c r="AO172" s="125"/>
       <c r="AP172" s="126"/>
       <c r="AR172" s="124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AS172" s="125"/>
       <c r="AT172" s="125"/>
@@ -9605,251 +9600,251 @@
     <row r="173" spans="1:57" ht="36">
       <c r="A173" s="90"/>
       <c r="B173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="D173" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="C173" s="92" t="s">
+      <c r="F173" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="D173" s="92" t="s">
+      <c r="G173" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="I173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="J173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="K173" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="L173" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="M173" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="N173" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="P173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="R173" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="E173" s="92" t="s">
+      <c r="S173" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="T173" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="U173" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="F173" s="92" t="s">
+      <c r="W173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="X173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y173" s="92" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z173" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA173" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB173" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF173" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG173" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH173" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="AI173" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="AK173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AM173" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="G173" s="93" t="s">
+      <c r="AN173" s="92" t="s">
+        <v>171</v>
+      </c>
+      <c r="AO173" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP173" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR173" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS173" s="92" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT173" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU173" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="I173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="J173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="K173" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="L173" s="92" t="s">
+      <c r="AV173" s="92" t="s">
+        <v>176</v>
+      </c>
+      <c r="AW173" s="93" t="s">
         <v>173</v>
-      </c>
-      <c r="M173" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="N173" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="P173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="R173" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="S173" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="T173" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="U173" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="W173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="X173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y173" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z173" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA173" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB173" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF173" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG173" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH173" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI173" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="AK173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM173" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN173" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO173" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP173" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR173" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS173" s="92" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT173" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU173" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV173" s="92" t="s">
-        <v>178</v>
-      </c>
-      <c r="AW173" s="93" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="174" spans="1:57">
       <c r="A174" s="90"/>
       <c r="B174" s="91"/>
       <c r="C174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="E174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="D174" s="92" t="s">
-        <v>180</v>
-      </c>
-      <c r="E174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="F174" s="92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I174" s="91"/>
       <c r="J174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="K174" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="K174" s="92" t="s">
-        <v>182</v>
-      </c>
-      <c r="L174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="M174" s="92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P174" s="91"/>
       <c r="Q174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="R174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="S174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="R174" s="92" t="s">
+      <c r="T174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="S174" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="T174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="U174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W174" s="91"/>
       <c r="X174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="Y174" s="92" t="s">
+      <c r="AA174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="Z174" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="AB174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AD174" s="91"/>
       <c r="AE174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AF174" s="92" t="s">
+      <c r="AH174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AG174" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="AI174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AK174" s="91"/>
       <c r="AL174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AM174" s="92" t="s">
+      <c r="AO174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AN174" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="AP174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AR174" s="91"/>
       <c r="AS174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT174" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AT174" s="92" t="s">
+      <c r="AV174" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="AU174" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV174" s="92" t="s">
-        <v>181</v>
-      </c>
       <c r="AW174" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="175" spans="1:57" ht="24">
       <c r="A175" s="90"/>
       <c r="B175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C175" s="95"/>
       <c r="D175" s="95"/>
@@ -9863,7 +9858,7 @@
       </c>
       <c r="G175" s="97"/>
       <c r="I175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J175" s="95"/>
       <c r="K175" s="95"/>
@@ -9877,7 +9872,7 @@
       </c>
       <c r="N175" s="97"/>
       <c r="P175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q175" s="95"/>
       <c r="R175" s="95"/>
@@ -9891,7 +9886,7 @@
       </c>
       <c r="U175" s="97"/>
       <c r="W175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X175" s="95"/>
       <c r="Y175" s="95"/>
@@ -9905,7 +9900,7 @@
       </c>
       <c r="AB175" s="97"/>
       <c r="AD175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AE175" s="95"/>
       <c r="AF175" s="95"/>
@@ -9919,7 +9914,7 @@
       </c>
       <c r="AI175" s="97"/>
       <c r="AK175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AL175" s="95"/>
       <c r="AM175" s="95"/>
@@ -9933,7 +9928,7 @@
       </c>
       <c r="AP175" s="97"/>
       <c r="AR175" s="94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AS175" s="95"/>
       <c r="AT175" s="95"/>
@@ -9960,7 +9955,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="101">
-        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21"/>
+        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21" ca="1"/>
         <v>3.3312210456474922E-2</v>
       </c>
       <c r="F176" s="101">
@@ -10092,7 +10087,7 @@
         <v>40</v>
       </c>
       <c r="AU176" s="101">
-        <f t="dataTable" ref="AU176:AV196" dt2D="0" dtr="0" r1="B25" ca="1"/>
+        <f t="dataTable" ref="AU176:AV196" dt2D="0" dtr="0" r1="B25"/>
         <v>0.1466039037678469</v>
       </c>
       <c r="AV176" s="101">
@@ -11502,7 +11497,7 @@
     </row>
     <row r="186" spans="2:49">
       <c r="B186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C186" s="99">
         <f>IF(ISERROR((D186-D186)/D186*100),"error",(D186-D186)/D186*100)</f>
@@ -11522,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J186" s="99">
         <f t="shared" si="40"/>
@@ -11542,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="P186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q186" s="99">
         <f t="shared" si="31"/>
@@ -11562,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="W186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="X186" s="99">
         <f t="shared" si="33"/>
@@ -11582,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="AD186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE186" s="99">
         <f t="shared" si="35"/>
@@ -11602,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AK186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL186" s="99">
         <f t="shared" si="37"/>
@@ -11622,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="AR186" s="98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AS186" s="99">
         <f t="shared" si="39"/>

--- a/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA3B5E0-3AAE-49F9-B7B2-6FA65E50CC03}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7D638-2EE2-4D93-86E6-05ED9ED04289}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <definedName name="ConstantLevelAnnualRevenueRequirements">Power_EconomicExample!$B$161</definedName>
     <definedName name="CostOfEquity">Power_EconomicExample!$B$71</definedName>
     <definedName name="CostOfMoney">Power_EconomicExample!$B$72</definedName>
+    <definedName name="CostOfMoney2">Power_EconomicExample!$B$151</definedName>
     <definedName name="CurrentLACofEnergy">Power_EconomicExample!$B$156</definedName>
     <definedName name="CurrentLevelAnnualRevenueRequirements">Power_EconomicExample!$B$155</definedName>
     <definedName name="DebtInterest1">Power_EconomicExample!$B$136</definedName>
@@ -124,11 +125,12 @@
     <definedName name="UtilitiesKwh">Power_EconomicExample!$C$41</definedName>
     <definedName name="Year">Power_EconomicExample!$C$130</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -5542,8 +5544,8 @@
   </sheetPr>
   <dimension ref="A1:BE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F163" sqref="F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -9955,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="101">
-        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21" ca="1"/>
+        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21"/>
         <v>3.3312210456474922E-2</v>
       </c>
       <c r="F176" s="101">
@@ -10087,7 +10089,7 @@
         <v>40</v>
       </c>
       <c r="AU176" s="101">
-        <f t="dataTable" ref="AU176:AV196" dt2D="0" dtr="0" r1="B25"/>
+        <f t="dataTable" ref="AU176:AV196" dt2D="0" dtr="0" r1="B25" ca="1"/>
         <v>0.1466039037678469</v>
       </c>
       <c r="AV176" s="101">

--- a/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEA7D638-2EE2-4D93-86E6-05ED9ED04289}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C81FB-7737-4B2D-8ED1-90DC84457AAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,9 @@
     <definedName name="EquityPrincipalRemaining2">Power_EconomicExample!$C$134</definedName>
     <definedName name="EquityRatio">Power_EconomicExample!$B$68</definedName>
     <definedName name="EquityRecovery">Power_EconomicExample!$B$131</definedName>
-    <definedName name="EscalationForProductionTaxCredit">Power_EconomicExample!$B$63</definedName>
     <definedName name="EscalationFuel">Power_EconomicExample!$B$62</definedName>
     <definedName name="EscalationOther">Power_EconomicExample!$B$64</definedName>
+    <definedName name="EscalationProductionTaxCredit">Power_EconomicExample!$B$63</definedName>
     <definedName name="FederalTaxRate">Power_EconomicExample!$B$49</definedName>
     <definedName name="FuelAshConcentration">Power_EconomicExample!$B$30</definedName>
     <definedName name="FuelConsumptionRate">Power_EconomicExample!$B$29</definedName>
@@ -5545,7 +5545,7 @@
   <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="F163" sqref="F163"/>
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -8557,7 +8557,7 @@
         <v>1675349.9999999998</v>
       </c>
       <c r="C146" s="50">
-        <f>AnnualGeneration*ProductionTaxCredit*((1+EscalationForProductionTaxCredit/100)^(Year-1))*TaxCreditFrac2</f>
+        <f>AnnualGeneration*ProductionTaxCredit*((1+EscalationProductionTaxCredit/100)^(Year-1))*TaxCreditFrac2</f>
         <v>1710532.3499999996</v>
       </c>
       <c r="D146" s="50">
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="101">
-        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21"/>
+        <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21" ca="1"/>
         <v>3.3312210456474922E-2</v>
       </c>
       <c r="F176" s="101">
@@ -10067,7 +10067,7 @@
         <v>5</v>
       </c>
       <c r="AN176" s="101">
-        <f t="dataTable" ref="AN176:AO196" dt2D="0" dtr="0" r1="B27" ca="1"/>
+        <f t="dataTable" ref="AN176:AO196" dt2D="0" dtr="0" r1="B27"/>
         <v>0.15180131595532328</v>
       </c>
       <c r="AO176" s="101">

--- a/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
+++ b/docs/10-31-2013-energy-cost-calculator-generic-power-only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkai\Documents\Github\technoeconomic-assessment\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375C81FB-7737-4B2D-8ED1-90DC84457AAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3AA95B-AAA2-4996-BB22-34E1D7F8F5E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power_EconomicExample" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <definedName name="UtilitiesKwh">Power_EconomicExample!$C$41</definedName>
     <definedName name="Year">Power_EconomicExample!$C$130</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="1000" iterateDelta="10000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -137,8 +137,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kzl0049</author>
+  </authors>
+  <commentList>
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{150259F5-07CA-4B0E-9CF0-E193B7EDA6B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kzl0049:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+as-fired higher heating value of a moist fuel</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="199">
   <si>
     <t>Fuel Heating Value (kJ/kg)</t>
   </si>
@@ -739,6 +773,9 @@
   </si>
   <si>
     <t>Net Electrical Capacity (kWe)</t>
+  </si>
+  <si>
+    <t>Moisture content on a wet basis</t>
   </si>
 </sst>
 </file>
@@ -752,7 +789,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="9"/>
       <name val="Helv"/>
@@ -797,6 +834,19 @@
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1179,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1441,6 +1491,7 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1597,67 +1648,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.9032951757753073E-2</c:v>
+                  <c:v>4.9923780047250586E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3092512679910556E-2</c:v>
+                  <c:v>5.3983340969408093E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7152073602068049E-2</c:v>
+                  <c:v>5.8042901891565572E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1211634524225528E-2</c:v>
+                  <c:v>6.2102462813723038E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5271195446383E-2</c:v>
+                  <c:v>6.616202373588051E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9330756368540486E-2</c:v>
+                  <c:v>7.0221584658037989E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3390317290697965E-2</c:v>
+                  <c:v>7.4281145580195496E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7449878212855437E-2</c:v>
+                  <c:v>7.8340706502352961E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1509439135012924E-2</c:v>
+                  <c:v>8.2400267424510454E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.556900005717041E-2</c:v>
+                  <c:v>8.6459828346667919E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7167745549048913E-2</c:v>
+                  <c:v>9.8058573838546409E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4706930118769938E-2</c:v>
+                  <c:v>0.10559775840826746</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.2246114688490963E-2</c:v>
+                  <c:v>0.11313694297798849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9785299258212001E-2</c:v>
+                  <c:v>0.12067612754770954</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1073244838279331</c:v>
+                  <c:v>0.12821531211743059</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11486366839765413</c:v>
+                  <c:v>0.13575449668715167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12240285296737513</c:v>
+                  <c:v>0.14329368125687261</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12994203753709618</c:v>
+                  <c:v>0.15083286582659367</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13748122210681718</c:v>
+                  <c:v>0.15837205039631477</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14502040667653823</c:v>
+                  <c:v>0.1659112349660358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,64 +1831,64 @@
                   <c:v>4.8737732689830379E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0826815518780134E-2</c:v>
+                  <c:v>5.2915898347729869E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2915898347729869E-2</c:v>
+                  <c:v>5.7094064005629386E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.500498117667961E-2</c:v>
+                  <c:v>6.1272229663528896E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7094064005629386E-2</c:v>
+                  <c:v>6.5450395321428378E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9183146834579141E-2</c:v>
+                  <c:v>6.9628560979327903E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1272229663528896E-2</c:v>
+                  <c:v>7.3806726637227399E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.3361312492478644E-2</c:v>
+                  <c:v>7.7984892295126881E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5450395321428378E-2</c:v>
+                  <c:v>8.2163057953026405E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7539478150378113E-2</c:v>
+                  <c:v>8.6341223610925888E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.7013776694367944E-2</c:v>
+                  <c:v>0.10528982069890551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.4398992409407986E-2</c:v>
+                  <c:v>0.12006025212898562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.1784208124448041E-2</c:v>
+                  <c:v>0.13483068355906574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9169423839488083E-2</c:v>
+                  <c:v>0.14960111498914583</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10655463955452811</c:v>
+                  <c:v>0.16437154641922591</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11393985526956819</c:v>
+                  <c:v>0.17914197784930599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.12132507098460822</c:v>
+                  <c:v>0.19391240927938613</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.12871028669964829</c:v>
+                  <c:v>0.20868284070946613</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13609550241468835</c:v>
+                  <c:v>0.22345327213954633</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14348071812972843</c:v>
+                  <c:v>0.23822370356962638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,67 +2006,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.10571178193836143</c:v>
+                  <c:v>0.12660261022785896</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10210345984245804</c:v>
+                  <c:v>0.12299428813195556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8495137746554731E-2</c:v>
+                  <c:v>0.11938596603605221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4886815650651365E-2</c:v>
+                  <c:v>0.11577764394014886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1278493554747986E-2</c:v>
+                  <c:v>0.11216932184424551</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7670171458844648E-2</c:v>
+                  <c:v>0.10856099974834216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4061849362941296E-2</c:v>
+                  <c:v>0.10495267765243876</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0453527267037958E-2</c:v>
+                  <c:v>0.10134435555653545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6845205171134578E-2</c:v>
+                  <c:v>9.7736033460632116E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3236883075231241E-2</c:v>
+                  <c:v>9.4127711364728722E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8425786947360095E-2</c:v>
+                  <c:v>8.9316615236857633E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.722301291539233E-2</c:v>
+                  <c:v>8.8113841204889826E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6020238883424537E-2</c:v>
+                  <c:v>8.6911067172922046E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.4817464851456744E-2</c:v>
+                  <c:v>8.5708293140954281E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3614690819488978E-2</c:v>
+                  <c:v>8.4505519108986474E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2411916787521178E-2</c:v>
+                  <c:v>8.3302745077018694E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1209142755553399E-2</c:v>
+                  <c:v>8.2099971045050901E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0006368723585619E-2</c:v>
+                  <c:v>8.0897197013083122E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8803594691617833E-2</c:v>
+                  <c:v>7.9694422981115356E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7600820659650054E-2</c:v>
+                  <c:v>7.8491648949147577E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2133,67 +2184,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.3752819895608159E-2</c:v>
+                  <c:v>8.464364818510571E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4267602308767963E-2</c:v>
+                  <c:v>8.51584305982655E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4798933266822442E-2</c:v>
+                  <c:v>8.5689761556319952E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5346705051268703E-2</c:v>
+                  <c:v>8.623753334076624E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5910790617152687E-2</c:v>
+                  <c:v>8.6801618906650196E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6491044411940689E-2</c:v>
+                  <c:v>8.7381872701438185E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7087303250486133E-2</c:v>
+                  <c:v>8.7978131539983614E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7699387238367714E-2</c:v>
+                  <c:v>8.859021552786521E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.832710073581573E-2</c:v>
+                  <c:v>8.9217929025313239E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8970233354470653E-2</c:v>
+                  <c:v>8.9861061643968176E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1339275802631774E-2</c:v>
+                  <c:v>9.2230104092129284E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3139450944562187E-2</c:v>
+                  <c:v>9.403027923405971E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.5024737430200689E-2</c:v>
+                  <c:v>9.5915565719698212E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6990533293816429E-2</c:v>
+                  <c:v>9.7881361583313939E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.9032077095855219E-2</c:v>
+                  <c:v>9.9922905385352784E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.1144533286135939E-2</c:v>
+                  <c:v>0.10203536157563349</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.3323067836010747E-2</c:v>
+                  <c:v>0.10421389612550823</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.5562913257934442E-2</c:v>
+                  <c:v>0.10645374154743194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.7859422737272042E-2</c:v>
+                  <c:v>0.10875025102676956</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0208113597702283E-2</c:v>
+                  <c:v>0.11109894188719978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2313,67 +2364,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>5.4028454107885981E-2</c:v>
+                  <c:v>7.4919282397383477E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5188565335658878E-2</c:v>
+                  <c:v>7.6079393625156699E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6445840319745061E-2</c:v>
+                  <c:v>7.7336668609242584E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7799099741444447E-2</c:v>
+                  <c:v>7.8689928030941936E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.924581259911383E-2</c:v>
+                  <c:v>8.0136640888611319E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0782282054473016E-2</c:v>
+                  <c:v>8.1673110343970526E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2403866788449745E-2</c:v>
+                  <c:v>8.3294695077947276E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4105217860947181E-2</c:v>
+                  <c:v>8.4996046150444704E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5880513130804855E-2</c:v>
+                  <c:v>8.677134142030235E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7723674922725283E-2</c:v>
+                  <c:v>8.8614503212222778E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4621688936990949E-2</c:v>
+                  <c:v>9.5512517226488444E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.9876524862556447E-2</c:v>
+                  <c:v>0.10076735315205396</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5320722220240064E-2</c:v>
+                  <c:v>0.1062115505097376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0897922104066692E-2</c:v>
+                  <c:v>0.11178875039356423</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6566138649695418E-2</c:v>
+                  <c:v>0.11745696693919298</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10229499446274076</c:v>
+                  <c:v>0.12318582275223829</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10806291044229326</c:v>
+                  <c:v>0.12895373873179078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11385472196223595</c:v>
+                  <c:v>0.13474555025173349</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1196598339414524</c:v>
+                  <c:v>0.14055066223094989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12547086575706737</c:v>
+                  <c:v>0.14636169404656488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2491,67 +2542,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.13230104584782043</c:v>
+                  <c:v>0.2158643590058105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11301720434982272</c:v>
+                  <c:v>0.17729667600981514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10096480341357415</c:v>
+                  <c:v>0.15319187413731794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2718423825614599E-2</c:v>
+                  <c:v>0.13669911496139883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.672105685255313E-2</c:v>
+                  <c:v>0.12470438101527585</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2163057953026405E-2</c:v>
+                  <c:v>0.11558838321622242</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8581773103398228E-2</c:v>
+                  <c:v>0.10842581351696612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5693640160149761E-2</c:v>
+                  <c:v>0.10264954763046909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3315177736298046E-2</c:v>
+                  <c:v>9.7892622782765698E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.1322411921719578E-2</c:v>
+                  <c:v>9.3907091153608777E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6903670332871687E-2</c:v>
+                  <c:v>8.5069607975912981E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4807600604828458E-2</c:v>
+                  <c:v>8.0877468519826551E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3145200475690735E-2</c:v>
+                  <c:v>7.7552668261551064E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1794500370766309E-2</c:v>
+                  <c:v>7.4851268051702252E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0675348855257535E-2</c:v>
+                  <c:v>7.2612965020684664E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9732905473776438E-2</c:v>
+                  <c:v>7.072807825772251E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.892838063592673E-2</c:v>
+                  <c:v>6.9119028582023054E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8233563730511077E-2</c:v>
+                  <c:v>6.772939477119172E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7627446855574006E-2</c:v>
+                  <c:v>6.6517161021317633E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7094064005629379E-2</c:v>
+                  <c:v>6.5450395321428378E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,67 +2720,67 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.12777128888373912</c:v>
+                  <c:v>0.14866211717323666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11666537456491902</c:v>
+                  <c:v>0.13755620285441653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10759932205975978</c:v>
+                  <c:v>0.1284901503492572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10005839988257118</c:v>
+                  <c:v>0.1209492281720687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3687620801842869E-2</c:v>
+                  <c:v>0.11457844909134039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8234233908739468E-2</c:v>
+                  <c:v>0.10912506219823698</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3513391523664923E-2</c:v>
+                  <c:v>0.1044042198131624</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9386781047201094E-2</c:v>
+                  <c:v>0.10027760933669863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5748848127160637E-2</c:v>
+                  <c:v>9.6639676416658146E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.2517640626752047E-2</c:v>
+                  <c:v>9.3408468916249557E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9628560979327903E-2</c:v>
+                  <c:v>9.0519389268825412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.873233395960672E-2</c:v>
+                  <c:v>8.9623162249104243E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7866660133739654E-2</c:v>
+                  <c:v>8.8757488423237191E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7030003307622335E-2</c:v>
+                  <c:v>8.7920831597119845E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6220928574673765E-2</c:v>
+                  <c:v>8.7111756864171247E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5438094103334288E-2</c:v>
+                  <c:v>8.6328922392831797E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4680243710867349E-2</c:v>
+                  <c:v>8.5571072000364873E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3946200137011966E-2</c:v>
+                  <c:v>8.4837028426509448E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3234858941729394E-2</c:v>
+                  <c:v>8.4125687231226917E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.2545182960516379E-2</c:v>
+                  <c:v>8.3436011250013903E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1876197258739725E-2</c:v>
+                  <c:v>8.2767025548237241E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,67 +3200,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-58.303099547938821</c:v>
+                  <c:v>-44.84741838128577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-52.472789593144931</c:v>
+                  <c:v>-40.362676543157164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-46.642479638351034</c:v>
+                  <c:v>-35.877934705028593</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-40.812169683557165</c:v>
+                  <c:v>-31.393192866900034</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-34.981859728763297</c:v>
+                  <c:v>-26.90845102877147</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-29.15154977396941</c:v>
+                  <c:v>-22.423709190642896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-23.321239819175535</c:v>
+                  <c:v>-17.938967352514293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-17.49092986438167</c:v>
+                  <c:v>-13.454225514385735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-11.660619909587783</c:v>
+                  <c:v>-8.9694836762571466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.8303099547938961</c:v>
+                  <c:v>-4.4847418381285884</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.827718487474309</c:v>
+                  <c:v>8.3288062708101673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.655436974948643</c:v>
+                  <c:v>16.657612541620399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.483155462422971</c:v>
+                  <c:v>24.986418812430593</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43.310873949897321</c:v>
+                  <c:v>33.315225083240826</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>54.138592437371749</c:v>
+                  <c:v>41.644031354051052</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>64.966310924846098</c:v>
+                  <c:v>49.972837624861313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75.794029412320384</c:v>
+                  <c:v>58.301643895671418</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86.621747899794755</c:v>
+                  <c:v>66.630450166481651</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.449466387269041</c:v>
+                  <c:v>74.959256437291941</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>108.27718487474343</c:v>
+                  <c:v>83.288062708102146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,67 +3380,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-30.003245788319283</c:v>
+                  <c:v>-46.157687227552366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-27.002921209487351</c:v>
+                  <c:v>-41.541918504797145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-24.002596630655447</c:v>
+                  <c:v>-36.92614978204189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-21.002272051823535</c:v>
+                  <c:v>-32.310381059286648</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-18.001947472991574</c:v>
+                  <c:v>-27.694612336531431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15.001622894159642</c:v>
+                  <c:v>-23.078843613776172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-12.001298315327711</c:v>
+                  <c:v>-18.463074891020945</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.0009737364957871</c:v>
+                  <c:v>-13.847306168265733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.0006491576638847</c:v>
+                  <c:v>-9.2315374455104724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.0003245788319819</c:v>
+                  <c:v>-4.6157687227552602</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.606589610882015</c:v>
+                  <c:v>16.31742276366306</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.21317922176403</c:v>
+                  <c:v>32.634845527326142</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.819768832646062</c:v>
+                  <c:v>48.952268290989231</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.42635844352808</c:v>
+                  <c:v>65.269691054652284</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.03294805441007</c:v>
+                  <c:v>81.587113818315331</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63.639537665292146</c:v>
+                  <c:v>97.904536581978377</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.24612727617415</c:v>
+                  <c:v>114.22195934564148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84.852716887056204</c:v>
+                  <c:v>130.53938210930446</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95.459306497938229</c:v>
+                  <c:v>146.85680487296761</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>106.06589610882031</c:v>
+                  <c:v>163.17422763663063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,67 +3558,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>51.822442474067962</c:v>
+                  <c:v>39.862422018638711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.640198226661106</c:v>
+                  <c:v>35.876179816774794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.45795397925437</c:v>
+                  <c:v>31.889937614910931</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.275709731847556</c:v>
+                  <c:v>27.903695413047057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.093465484440724</c:v>
+                  <c:v>23.917453211183194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.911221237033949</c:v>
+                  <c:v>19.931211009319323</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.728976989627157</c:v>
+                  <c:v>15.944968807455409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.546732742220382</c:v>
+                  <c:v>11.958726605591588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.364488494813548</c:v>
+                  <c:v>7.9724844037277354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.182244247406774</c:v>
+                  <c:v>3.9862422018638219</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7274147491356313</c:v>
+                  <c:v>-1.328747400621284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.4548294982712022</c:v>
+                  <c:v>-2.6574948012425992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.1822442474068131</c:v>
+                  <c:v>-3.9862422018638837</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.9096589965424258</c:v>
+                  <c:v>-5.3149896024851522</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.6370737456779967</c:v>
+                  <c:v>-6.6437370031064678</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-10.364488494813617</c:v>
+                  <c:v>-7.9724844037277514</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-12.09190324394921</c:v>
+                  <c:v>-9.3012318043490492</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-13.819317993084802</c:v>
+                  <c:v>-10.629979204970335</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-15.546732742220401</c:v>
+                  <c:v>-11.958726605591604</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.274147491355993</c:v>
+                  <c:v>-13.287474006212888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3685,67 +3736,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-8.4386938363758492</c:v>
+                  <c:v>-6.4911408828332515</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.6993673216247576</c:v>
+                  <c:v>-5.9224423782167621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.9362739148656729</c:v>
+                  <c:v>-5.3354621054306746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.149568320578167</c:v>
+                  <c:v>-4.7303190649495797</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.3394329997412822</c:v>
+                  <c:v>-4.107153607868633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5060769937766114</c:v>
+                  <c:v>-3.4661265312665757</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.6497346679277869</c:v>
+                  <c:v>-2.8074181115989907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.7706643851693888</c:v>
+                  <c:v>-2.1312270846535677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.869147121823421</c:v>
+                  <c:v>-1.4377695806663953</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.94548503602236011</c:v>
+                  <c:v>-0.727278023167089</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4569153796123508</c:v>
+                  <c:v>1.8898877214288017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0423129759591561</c:v>
+                  <c:v>3.8786054497204145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7499468249456749</c:v>
+                  <c:v>5.9613487170656665</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.573207619031837</c:v>
+                  <c:v>8.1330335676756125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.505257015607627</c:v>
+                  <c:v>10.388399869337068</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16.539150234954629</c:v>
+                  <c:v>12.722105617182001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.667944682568724</c:v>
+                  <c:v>15.12881048723465</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.884793329762061</c:v>
+                  <c:v>17.603247665850379</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.1830224573458</c:v>
+                  <c:v>20.140283651055082</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29.556194080306021</c:v>
+                  <c:v>22.734966270328005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,67 +3916,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-22.404752664748383</c:v>
+                  <c:v>-17.23399483519777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20.738609904570811</c:v>
+                  <c:v>-15.952378557023476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-18.9329213101168</c:v>
+                  <c:v>-14.563422009435623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-16.989380609769483</c:v>
+                  <c:v>-13.068428027891594</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.911622808486044</c:v>
+                  <c:v>-11.470192700239394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-12.704957276772197</c:v>
+                  <c:v>-9.7728000556688652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.376049841132154</c:v>
+                  <c:v>-7.9813775250097692</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.9325826079050419</c:v>
+                  <c:v>-6.1018342732930142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.3829172911325998</c:v>
+                  <c:v>-4.1406022276532051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.735782601005015</c:v>
+                  <c:v>-2.1043956129061847</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.1710917006391401</c:v>
+                  <c:v>5.5160866616481359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.71804635783163</c:v>
+                  <c:v>11.321291455904586</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.536960437213434</c:v>
+                  <c:v>17.335690582610368</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.546891714527135</c:v>
+                  <c:v>23.497022346861897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.687540416590025</c:v>
+                  <c:v>29.758903465828823</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.915278764860915</c:v>
+                  <c:v>36.087774947751541</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>55.199115021745413</c:v>
+                  <c:v>42.459797589688371</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.517269868665529</c:v>
+                  <c:v>48.858218487936064</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>71.85452673218154</c:v>
+                  <c:v>55.271332878242355</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>80.200285618883527</c:v>
+                  <c:v>61.690987123099575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,67 +4094,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>90.009737364957786</c:v>
+                  <c:v>138.47306168265706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62.31443356035539</c:v>
+                  <c:v>95.86596578030111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.004868682478879</c:v>
+                  <c:v>69.236530841328531</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.161482187089675</c:v>
+                  <c:v>51.016391146242043</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.548110190443023</c:v>
+                  <c:v>37.765380458906435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.001947472991557</c:v>
+                  <c:v>27.694612336531403</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.858533909279634</c:v>
+                  <c:v>19.781865954665275</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7106197449959168</c:v>
+                  <c:v>13.400618872515155</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2946904332328026</c:v>
+                  <c:v>8.145474216626873</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4326956044582975</c:v>
+                  <c:v>3.7425151806123358</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9134668419547136</c:v>
+                  <c:v>-6.0205678992460001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.9238259511506266</c:v>
+                  <c:v>-10.651773975589016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9.3113521412025424</c:v>
+                  <c:v>-14.324799484412834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-11.251217170619764</c:v>
+                  <c:v>-17.309132710332161</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-12.858533909279693</c:v>
+                  <c:v>-19.781865954665321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-14.212063794467038</c:v>
+                  <c:v>-21.864167634103744</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.36751613548061</c:v>
+                  <c:v>-23.641742238502459</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-16.365406793628694</c:v>
+                  <c:v>-25.176920305937696</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-17.235907154991928</c:v>
+                  <c:v>-26.516118194551353</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-18.001947472991585</c:v>
+                  <c:v>-27.694612336531431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4221,67 +4272,67 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>83.504135496457081</c:v>
+                  <c:v>64.232346654194032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.55390736792036</c:v>
+                  <c:v>51.963246731482805</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.533312977278179</c:v>
+                  <c:v>41.947654957840953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.70309895141682</c:v>
+                  <c:v>33.616929090045488</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.553435377844281</c:v>
+                  <c:v>26.578902063804406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.721323358866233</c:v>
+                  <c:v>20.554350929342053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.941286088706189</c:v>
+                  <c:v>15.339067857717954</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.014680083321441</c:v>
+                  <c:v>10.780253983920678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.7899089996270252</c:v>
+                  <c:v>6.7612996478098664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.149273813488529</c:v>
+                  <c:v>3.1916693989661447</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2871543043769986</c:v>
+                  <c:v>-0.9900939754018272</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.5304283483775309</c:v>
+                  <c:v>-1.9464347470967904</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.7320284020763492</c:v>
+                  <c:v>-2.8707194035394386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.8940152671916239</c:v>
+                  <c:v>-3.7645331372421693</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.0183160718167459</c:v>
+                  <c:v>-4.6293583174194017</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.1067349358687224</c:v>
+                  <c:v>-5.4665826939739679</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8.1609626314164068</c:v>
+                  <c:v>-6.2775068283331334</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.1825853466894749</c:v>
+                  <c:v>-7.063350834825469</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-10.173092649314574</c:v>
+                  <c:v>-7.8252605060946889</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-11.133884732860967</c:v>
+                  <c:v>-8.5643128872258742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,14 +5589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
   <dimension ref="A1:BE215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12"/>
@@ -5730,6 +5781,12 @@
       <c r="I17" s="87"/>
     </row>
     <row r="18" spans="1:9">
+      <c r="B18" s="127">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
       <c r="H18" s="86"/>
@@ -5813,6 +5870,10 @@
       <c r="B28" s="11">
         <v>18608</v>
       </c>
+      <c r="C28" s="116">
+        <f>FuelHeatingValue*(1-B18)</f>
+        <v>9304</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
       </c>
@@ -5822,9 +5883,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="24">
-        <f>NetPlantCapacity/(NetStationEfficiency/100)*3600/FuelHeatingValue/1000</f>
-        <v>24.183147033533967</v>
-      </c>
+        <f>NetPlantCapacity/(NetStationEfficiency/100)*3600/C28/1000</f>
+        <v>48.366294067067933</v>
+      </c>
+      <c r="C29" s="116"/>
       <c r="D29" s="2" t="s">
         <v>123</v>
       </c>
@@ -5836,6 +5898,7 @@
       <c r="B30" s="12">
         <v>5</v>
       </c>
+      <c r="C30" s="116"/>
       <c r="D30" s="2" t="s">
         <v>121</v>
       </c>
@@ -5848,6 +5911,7 @@
         <f>NetPlantCapacity*8760*CapacityFactor/100</f>
         <v>186150000</v>
       </c>
+      <c r="C31" s="116"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="40" t="s">
@@ -5857,6 +5921,7 @@
         <f>CapitalCost/NetPlantCapacity</f>
         <v>2800</v>
       </c>
+      <c r="C32" s="116"/>
       <c r="D32" s="2" t="s">
         <v>87</v>
       </c>
@@ -5867,8 +5932,9 @@
       </c>
       <c r="B33" s="24">
         <f>FuelConsumptionRate*AnnualHours</f>
-        <v>180067.71281169393</v>
-      </c>
+        <v>360135.42562338786</v>
+      </c>
+      <c r="C33" s="116"/>
       <c r="D33" s="2" t="s">
         <v>160</v>
       </c>
@@ -5879,7 +5945,7 @@
       </c>
       <c r="B34" s="24">
         <f>AnnualFuelConsumption*FuelAshConcentration/100</f>
-        <v>9003.3856405846964</v>
+        <v>18006.771281169393</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5904,7 +5970,7 @@
       </c>
       <c r="C37" s="43">
         <f>AnnualFuelConsumption*FuelCost/AnnualGeneration</f>
-        <v>2.1329535683576963E-2</v>
+        <v>4.2659071367153925E-2</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -6043,11 +6109,11 @@
       </c>
       <c r="B46" s="24">
         <f>FuelCost*AnnualFuelConsumption+TotalNonFuelExpenses</f>
-        <v>9770493.0674978513</v>
+        <v>13740986.134995703</v>
       </c>
       <c r="C46" s="43">
         <f>FuelCostKwh+TotalNonFuelExpensesKwh</f>
-        <v>5.2487204230447768E-2</v>
+        <v>7.3816739914024723E-2</v>
       </c>
       <c r="E46" s="7"/>
     </row>
@@ -7879,87 +7945,87 @@
       </c>
       <c r="B139" s="50">
         <f>AnnualFuelConsumption*FuelCost</f>
-        <v>3970493.0674978513</v>
+        <v>7940986.1349957027</v>
       </c>
       <c r="C139" s="50">
         <f>FuelCost1*(1+EscalationFuel/100)^(Year-1)</f>
-        <v>4053873.4219153058</v>
+        <v>8107746.8438306116</v>
       </c>
       <c r="D139" s="50">
         <f t="shared" ref="D139:U139" si="20">$B$139*(1+$B$62/100)^(D130-1)</f>
-        <v>4139004.7637755265</v>
+        <v>8278009.5275510531</v>
       </c>
       <c r="E139" s="50">
         <f t="shared" si="20"/>
-        <v>4225923.8638148122</v>
+        <v>8451847.7276296243</v>
       </c>
       <c r="F139" s="50">
         <f t="shared" si="20"/>
-        <v>4314668.2649549227</v>
+        <v>8629336.5299098454</v>
       </c>
       <c r="G139" s="50">
         <f t="shared" si="20"/>
-        <v>4405276.2985189753</v>
+        <v>8810552.5970379505</v>
       </c>
       <c r="H139" s="50">
         <f t="shared" si="20"/>
-        <v>4497787.1007878734</v>
+        <v>8995574.2015757468</v>
       </c>
       <c r="I139" s="50">
         <f t="shared" si="20"/>
-        <v>4592240.6299044183</v>
+        <v>9184481.2598088365</v>
       </c>
       <c r="J139" s="50">
         <f t="shared" si="20"/>
-        <v>4688677.68313241</v>
+        <v>9377355.3662648201</v>
       </c>
       <c r="K139" s="50">
         <f t="shared" si="20"/>
-        <v>4787139.9144781902</v>
+        <v>9574279.8289563805</v>
       </c>
       <c r="L139" s="50">
         <f t="shared" si="20"/>
-        <v>4887669.8526822319</v>
+        <v>9775339.7053644639</v>
       </c>
       <c r="M139" s="50">
         <f t="shared" si="20"/>
-        <v>4990310.9195885584</v>
+        <v>9980621.8391771168</v>
       </c>
       <c r="N139" s="50">
         <f t="shared" si="20"/>
-        <v>5095107.4488999164</v>
+        <v>10190214.897799833</v>
       </c>
       <c r="O139" s="50">
         <f t="shared" si="20"/>
-        <v>5202104.7053268142</v>
+        <v>10404209.410653628</v>
       </c>
       <c r="P139" s="50">
         <f t="shared" si="20"/>
-        <v>5311348.9041386778</v>
+        <v>10622697.808277356</v>
       </c>
       <c r="Q139" s="50">
         <f t="shared" si="20"/>
-        <v>5422887.2311255885</v>
+        <v>10845774.462251177</v>
       </c>
       <c r="R139" s="50">
         <f t="shared" si="20"/>
-        <v>5536767.8629792258</v>
+        <v>11073535.725958452</v>
       </c>
       <c r="S139" s="50">
         <f t="shared" si="20"/>
-        <v>5653039.9881017897</v>
+        <v>11306079.976203579</v>
       </c>
       <c r="T139" s="50">
         <f t="shared" si="20"/>
-        <v>5771753.827851925</v>
+        <v>11543507.65570385</v>
       </c>
       <c r="U139" s="50">
         <f t="shared" si="20"/>
-        <v>5892960.6582368156</v>
+        <v>11785921.316473631</v>
       </c>
       <c r="V139" s="56">
         <f t="shared" si="7"/>
-        <v>97439036.407711834</v>
+        <v>194878072.81542367</v>
       </c>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
@@ -8752,87 +8818,87 @@
       </c>
       <c r="B148" s="51">
         <f>EquityRecovery+DebtRecovery+FuelCost1+NonFuelExpenses1+Taxes1+DebtReserve1-CapacityIncome-InterestOnDebtReserve</f>
-        <v>18943893.905384663</v>
+        <v>22914386.972882513</v>
       </c>
       <c r="C148" s="51">
         <f>EquityRecovery+DebtRecovery+FuelCost2+NonFuelExpenses2+Taxes2+DebtReserve2-CapacityIncome-InterestOnDebtReserve</f>
-        <v>12118192.113050232</v>
+        <v>16172065.534965539</v>
       </c>
       <c r="D148" s="51">
         <f t="shared" ref="D148:U148" si="26">D131+D135+D139+D140+D147+D141-D143-D144</f>
-        <v>12359749.775417114</v>
+        <v>16498754.539192641</v>
       </c>
       <c r="E148" s="51">
         <f t="shared" si="26"/>
-        <v>12608014.389341922</v>
+        <v>16833938.253156729</v>
       </c>
       <c r="F148" s="51">
         <f t="shared" si="26"/>
-        <v>12863208.512839777</v>
+        <v>17177876.777794696</v>
       </c>
       <c r="G148" s="51">
         <f t="shared" si="26"/>
-        <v>14382214.583537353</v>
+        <v>18787490.882056329</v>
       </c>
       <c r="H148" s="51">
         <f t="shared" si="26"/>
-        <v>14678360.499258375</v>
+        <v>19176147.600046244</v>
       </c>
       <c r="I148" s="51">
         <f t="shared" si="26"/>
-        <v>14982711.908931447</v>
+        <v>19574952.538835861</v>
       </c>
       <c r="J148" s="51">
         <f t="shared" si="26"/>
-        <v>15295540.44941566</v>
+        <v>19984218.132548068</v>
       </c>
       <c r="K148" s="51">
         <f t="shared" si="26"/>
-        <v>15617128.428018456</v>
+        <v>20404268.342496645</v>
       </c>
       <c r="L148" s="51">
         <f t="shared" si="26"/>
-        <v>15947769.294878749</v>
+        <v>20835439.14756098</v>
       </c>
       <c r="M148" s="51">
         <f t="shared" si="26"/>
-        <v>16287768.137685275</v>
+        <v>21278079.057273831</v>
       </c>
       <c r="N148" s="51">
         <f t="shared" si="26"/>
-        <v>16637442.199820017</v>
+        <v>21732549.648719933</v>
       </c>
       <c r="O148" s="51">
         <f t="shared" si="26"/>
-        <v>16997121.423070334</v>
+        <v>22199226.128397148</v>
       </c>
       <c r="P148" s="51">
         <f t="shared" si="26"/>
-        <v>17367149.0161102</v>
+        <v>22678497.920248877</v>
       </c>
       <c r="Q148" s="51">
         <f t="shared" si="26"/>
-        <v>17747882.050010245</v>
+        <v>23170769.281135831</v>
       </c>
       <c r="R148" s="51">
         <f t="shared" si="26"/>
-        <v>18139692.082098853</v>
+        <v>23676459.945078079</v>
       </c>
       <c r="S148" s="51">
         <f t="shared" si="26"/>
-        <v>18542965.809561826</v>
+        <v>24196005.797663618</v>
       </c>
       <c r="T148" s="51">
         <f t="shared" si="26"/>
-        <v>18958105.754237037</v>
+        <v>24729859.582088962</v>
       </c>
       <c r="U148" s="51">
         <f t="shared" si="26"/>
-        <v>12324764.307580955</v>
+        <v>18217724.965817768</v>
       </c>
       <c r="V148" s="57">
         <f t="shared" si="7"/>
-        <v>312799674.64024848</v>
+        <v>410238711.04796028</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
@@ -8957,83 +9023,83 @@
       </c>
       <c r="B152" s="59">
         <f>EnergyRevenueRequired1*(1+CostOfEquity/100)^-B130</f>
-        <v>16472951.222073622</v>
+        <v>19925553.889463056</v>
       </c>
       <c r="C152" s="24">
         <f t="shared" ref="C152:U152" si="27">C148*(1+$B$151)^-C130</f>
-        <v>9163094.2253687959</v>
+        <v>12228404.94137281</v>
       </c>
       <c r="D152" s="24">
         <f t="shared" si="27"/>
-        <v>8126736.1061343746</v>
+        <v>10848198.924430111</v>
       </c>
       <c r="E152" s="24">
         <f t="shared" si="27"/>
-        <v>7208673.1475899117</v>
+        <v>9624858.8323550802</v>
       </c>
       <c r="F152" s="24">
         <f t="shared" si="27"/>
-        <v>6395288.0138748512</v>
+        <v>8540440.6957402751</v>
       </c>
       <c r="G152" s="24">
         <f t="shared" si="27"/>
-        <v>6217828.2547848308</v>
+        <v>8122350.7662497004</v>
       </c>
       <c r="H152" s="24">
         <f t="shared" si="27"/>
-        <v>5518139.3970152419</v>
+        <v>7209024.1658897027</v>
       </c>
       <c r="I152" s="24">
         <f t="shared" si="27"/>
-        <v>4897875.1000557886</v>
+        <v>6399086.707899984</v>
       </c>
       <c r="J152" s="24">
         <f t="shared" si="27"/>
-        <v>4347947.2216085102</v>
+        <v>5680762.0490945308</v>
       </c>
       <c r="K152" s="24">
         <f t="shared" si="27"/>
-        <v>3860315.3009471791</v>
+        <v>5043623.0738717243</v>
       </c>
       <c r="L152" s="24">
         <f t="shared" si="27"/>
-        <v>3427864.9273512345</v>
+        <v>4478436.4370520702</v>
       </c>
       <c r="M152" s="24">
         <f t="shared" si="27"/>
-        <v>3044300.3255159361</v>
+        <v>3977025.1180416346</v>
       </c>
       <c r="N152" s="24">
         <f t="shared" si="27"/>
-        <v>2704049.4851858579</v>
+        <v>3532146.8879412818</v>
       </c>
       <c r="O152" s="24">
         <f t="shared" si="27"/>
-        <v>2402180.3603499485</v>
+        <v>3137386.8370571556</v>
       </c>
       <c r="P152" s="24">
         <f t="shared" si="27"/>
-        <v>2134326.8378192293</v>
+        <v>2787062.3271392803</v>
       </c>
       <c r="Q152" s="24">
         <f t="shared" si="27"/>
-        <v>1896623.3287139493</v>
+        <v>2476138.9240146205</v>
       </c>
       <c r="R152" s="24">
         <f t="shared" si="27"/>
-        <v>1685646.9718055634</v>
+        <v>2200156.0351116378</v>
       </c>
       <c r="S152" s="24">
         <f t="shared" si="27"/>
-        <v>1498366.5569795398</v>
+        <v>1955161.1253582372</v>
       </c>
       <c r="T152" s="24">
         <f t="shared" si="27"/>
-        <v>1332097.3822336481</v>
+        <v>1737651.5164203001</v>
       </c>
       <c r="U152" s="59">
         <f t="shared" si="27"/>
-        <v>753046.53706977039</v>
+        <v>1113108.0770737457</v>
       </c>
       <c r="V152" s="55"/>
       <c r="Y152" s="4"/>
@@ -9053,7 +9119,7 @@
       </c>
       <c r="B153" s="59">
         <f>SUM(B152:U152)</f>
-        <v>93087350.702477798</v>
+        <v>121016577.33157696</v>
       </c>
       <c r="C153" s="49"/>
       <c r="D153" s="54"/>
@@ -9111,7 +9177,7 @@
       </c>
       <c r="B155" s="60">
         <f>TotalPresentWorth*CapitalRecoveryFactorCurrent</f>
-        <v>14871772.02440301</v>
+        <v>19333786.337963149</v>
       </c>
       <c r="C155" s="49"/>
       <c r="D155" s="54"/>
@@ -9134,7 +9200,7 @@
       <c r="U155" s="54"/>
       <c r="V155" s="56">
         <f>EconomicLife*CurrentLevelAnnualRevenueRequirements</f>
-        <v>297435440.48806018</v>
+        <v>386675726.75926298</v>
       </c>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4"/>
@@ -9153,7 +9219,7 @@
       </c>
       <c r="B156" s="72">
         <f>CurrentLevelAnnualRevenueRequirements/AnnualGeneration</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="C156" s="62"/>
       <c r="D156" s="62"/>
@@ -9176,7 +9242,7 @@
       <c r="U156" s="62"/>
       <c r="V156" s="57">
         <f>CurrentLACofEnergy*AnnualGeneration*EconomicLife</f>
-        <v>297435440.48806018</v>
+        <v>386675726.75926298</v>
       </c>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4"/>
@@ -9275,7 +9341,7 @@
       </c>
       <c r="B161" s="47">
         <f>TotalPresentWorth*CapitalRecoveryFactorConstant</f>
-        <v>12961356.626301888</v>
+        <v>16850184.312391851</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -9297,7 +9363,7 @@
       </c>
       <c r="B162" s="72">
         <f>ConstantLevelAnnualRevenueRequirements/AnnualGeneration</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -9852,11 +9918,11 @@
       <c r="D175" s="95"/>
       <c r="E175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="F175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="G175" s="97"/>
       <c r="I175" s="94" t="s">
@@ -9866,11 +9932,11 @@
       <c r="K175" s="95"/>
       <c r="L175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="M175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="N175" s="97"/>
       <c r="P175" s="94" t="s">
@@ -9880,11 +9946,11 @@
       <c r="R175" s="95"/>
       <c r="S175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U175" s="97"/>
       <c r="W175" s="94" t="s">
@@ -9894,11 +9960,11 @@
       <c r="Y175" s="95"/>
       <c r="Z175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AA175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AB175" s="97"/>
       <c r="AD175" s="94" t="s">
@@ -9908,11 +9974,11 @@
       <c r="AF175" s="95"/>
       <c r="AG175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AH175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AI175" s="97"/>
       <c r="AK175" s="94" t="s">
@@ -9922,11 +9988,11 @@
       <c r="AM175" s="95"/>
       <c r="AN175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AO175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AP175" s="97"/>
       <c r="AR175" s="94" t="s">
@@ -9936,11 +10002,11 @@
       <c r="AT175" s="95"/>
       <c r="AU175" s="96">
         <f>$B$156</f>
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AV175" s="96">
         <f>$B$162</f>
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AW175" s="97"/>
     </row>
@@ -9958,14 +10024,14 @@
       </c>
       <c r="E176" s="101">
         <f t="dataTable" ref="E176:F196" dt2D="0" dtr="0" r1="B21" ca="1"/>
-        <v>3.3312210456474922E-2</v>
+        <v>5.7282204082905984E-2</v>
       </c>
       <c r="F176" s="101">
-        <v>2.9032951757753073E-2</v>
+        <v>4.9923780047250586E-2</v>
       </c>
       <c r="G176" s="102">
         <f>(F176-F186)/F186*100</f>
-        <v>-58.303099547938821</v>
+        <v>-44.84741838128577</v>
       </c>
       <c r="I176" s="98">
         <f t="shared" ref="I176:I183" si="29">I177-1</f>
@@ -9987,7 +10053,7 @@
       </c>
       <c r="N176" s="102">
         <f>(M176-M186)/M186*100</f>
-        <v>-30.003245788319283</v>
+        <v>-46.157687227552366</v>
       </c>
       <c r="P176" s="98">
         <f t="shared" ref="P176:P183" si="30">P177-1</f>
@@ -10002,14 +10068,14 @@
       </c>
       <c r="S176" s="101">
         <f t="dataTable" ref="S176:T196" dt2D="0" dtr="0" r1="B67" ca="1"/>
-        <v>0.12129297623757074</v>
+        <v>0.14526296986400178</v>
       </c>
       <c r="T176" s="101">
-        <v>0.10571178193836143</v>
+        <v>0.12660261022785896</v>
       </c>
       <c r="U176" s="102">
         <f>(T176-T186)/T186*100</f>
-        <v>51.822442474067962</v>
+        <v>39.862422018638711</v>
       </c>
       <c r="W176" s="98">
         <f t="shared" ref="W176:W183" si="32">W177-1</f>
@@ -10024,14 +10090,14 @@
       </c>
       <c r="Z176" s="101">
         <f t="dataTable" ref="Z176:AA196" dt2D="0" dtr="0" r1="B69" ca="1"/>
-        <v>7.3149549907170805E-2</v>
+        <v>9.7119543533601901E-2</v>
       </c>
       <c r="AA176" s="101">
-        <v>6.3752819895608159E-2</v>
+        <v>8.464364818510571E-2</v>
       </c>
       <c r="AB176" s="102">
         <f>(AA176-AA186)/AA186*100</f>
-        <v>-8.4386938363758492</v>
+        <v>-6.4911408828332515</v>
       </c>
       <c r="AD176" s="98">
         <f t="shared" ref="AD176:AD183" si="34">AD177-1</f>
@@ -10046,14 +10112,14 @@
       </c>
       <c r="AG176" s="101">
         <f t="dataTable" ref="AG176:AH196" dt2D="0" dtr="0" r1="B71" ca="1"/>
-        <v>6.7224110763739048E-2</v>
+        <v>9.321721713830125E-2</v>
       </c>
       <c r="AH176" s="101">
-        <v>5.4028454107885981E-2</v>
+        <v>7.4919282397383477E-2</v>
       </c>
       <c r="AI176" s="102">
         <f>(AH176-AH186)/AH186*100</f>
-        <v>-22.404752664748383</v>
+        <v>-17.23399483519777</v>
       </c>
       <c r="AK176" s="98">
         <f t="shared" ref="AK176:AK183" si="36">AK177-1</f>
@@ -10068,14 +10134,14 @@
       </c>
       <c r="AN176" s="101">
         <f t="dataTable" ref="AN176:AO196" dt2D="0" dtr="0" r1="B27"/>
-        <v>0.15180131595532328</v>
+        <v>0.24768129046104748</v>
       </c>
       <c r="AO176" s="101">
-        <v>0.13230104584782043</v>
+        <v>0.2158643590058105</v>
       </c>
       <c r="AP176" s="102">
         <f>(AO176-AO186)/AO186*100</f>
-        <v>90.009737364957786</v>
+        <v>138.47306168265706</v>
       </c>
       <c r="AR176" s="98">
         <f t="shared" ref="AR176:AR183" si="38">AR177-1</f>
@@ -10090,14 +10156,14 @@
       </c>
       <c r="AU176" s="101">
         <f t="dataTable" ref="AU176:AV196" dt2D="0" dtr="0" r1="B25" ca="1"/>
-        <v>0.1466039037678469</v>
+        <v>0.17057389739427797</v>
       </c>
       <c r="AV176" s="101">
-        <v>0.12777128888373912</v>
+        <v>0.14866211717323666</v>
       </c>
       <c r="AW176" s="102">
         <f>(AV176-AV186)/AV186*100</f>
-        <v>83.504135496457081</v>
+        <v>64.232346654194032</v>
       </c>
     </row>
     <row r="177" spans="2:49">
@@ -10114,14 +10180,14 @@
         <v>7000000</v>
       </c>
       <c r="E177" s="101">
-        <v>3.7970122918430452E-2</v>
+        <v>6.1940116544861527E-2</v>
       </c>
       <c r="F177" s="101">
-        <v>3.3092512679910556E-2</v>
+        <v>5.3983340969408093E-2</v>
       </c>
       <c r="G177" s="102">
         <f>(F177-F186)/F186*100</f>
-        <v>-52.472789593144931</v>
+        <v>-40.362676543157164</v>
       </c>
       <c r="I177" s="98">
         <f t="shared" si="29"/>
@@ -10136,14 +10202,14 @@
         <v>2.2049999999999983</v>
       </c>
       <c r="L177" s="101">
-        <v>5.8318340812242186E-2</v>
+        <v>6.0715340174885273E-2</v>
       </c>
       <c r="M177" s="101">
-        <v>5.0826815518780134E-2</v>
+        <v>5.2915898347729869E-2</v>
       </c>
       <c r="N177" s="102">
         <f>(M177-M186)/M186*100</f>
-        <v>-27.002921209487351</v>
+        <v>-41.541918504797145</v>
       </c>
       <c r="P177" s="98">
         <f t="shared" si="30"/>
@@ -10158,14 +10224,14 @@
         <v>7.5</v>
       </c>
       <c r="S177" s="101">
-        <v>0.11715281212141662</v>
+        <v>0.14112280574784769</v>
       </c>
       <c r="T177" s="101">
-        <v>0.10210345984245804</v>
+        <v>0.12299428813195556</v>
       </c>
       <c r="U177" s="102">
         <f>(T177-T186)/T186*100</f>
-        <v>46.640198226661106</v>
+        <v>35.876179816774794</v>
       </c>
       <c r="W177" s="98">
         <f t="shared" si="32"/>
@@ -10180,14 +10246,14 @@
         <v>1.4</v>
       </c>
       <c r="Z177" s="101">
-        <v>7.3740207730376539E-2</v>
+        <v>9.7710201356807622E-2</v>
       </c>
       <c r="AA177" s="101">
-        <v>6.4267602308767963E-2</v>
+        <v>8.51584305982655E-2</v>
       </c>
       <c r="AB177" s="102">
         <f>(AA177-AA186)/AA186*100</f>
-        <v>-7.6993673216247576</v>
+        <v>-5.9224423782167621</v>
       </c>
       <c r="AD177" s="98">
         <f t="shared" si="34"/>
@@ -10202,14 +10268,14 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="AG177" s="101">
-        <v>6.801865064651888E-2</v>
+        <v>9.3766121023713872E-2</v>
       </c>
       <c r="AH177" s="101">
-        <v>5.5188565335658878E-2</v>
+        <v>7.6079393625156699E-2</v>
       </c>
       <c r="AI177" s="102">
         <f>(AH177-AH186)/AH186*100</f>
-        <v>-20.738609904570811</v>
+        <v>-15.952378557023476</v>
       </c>
       <c r="AK177" s="98">
         <f t="shared" si="36"/>
@@ -10224,14 +10290,14 @@
         <v>6.5</v>
       </c>
       <c r="AN177" s="101">
-        <v>0.12967516799246384</v>
+        <v>0.20342899453532867</v>
       </c>
       <c r="AO177" s="101">
-        <v>0.11301720434982272</v>
+        <v>0.17729667600981514</v>
       </c>
       <c r="AP177" s="102">
         <f>(AO177-AO186)/AO186*100</f>
-        <v>62.31443356035539</v>
+        <v>95.86596578030111</v>
       </c>
       <c r="AR177" s="98">
         <f t="shared" si="38"/>
@@ -10246,14 +10312,14 @@
         <v>44.5</v>
       </c>
       <c r="AU177" s="101">
-        <v>0.1338610535682864</v>
+        <v>0.15783104719471744</v>
       </c>
       <c r="AV177" s="101">
-        <v>0.11666537456491902</v>
+        <v>0.13755620285441653</v>
       </c>
       <c r="AW177" s="102">
         <f>(AV177-AV186)/AV186*100</f>
-        <v>67.55390736792036</v>
+        <v>51.963246731482805</v>
       </c>
     </row>
     <row r="178" spans="2:49">
@@ -10270,14 +10336,14 @@
         <v>14000000</v>
       </c>
       <c r="E178" s="101">
-        <v>4.2628035380385974E-2</v>
+        <v>6.6598029006817036E-2</v>
       </c>
       <c r="F178" s="101">
-        <v>3.7152073602068049E-2</v>
+        <v>5.8042901891565572E-2</v>
       </c>
       <c r="G178" s="102">
         <f>(F178-F186)/F186*100</f>
-        <v>-46.642479638351034</v>
+        <v>-35.877934705028593</v>
       </c>
       <c r="I178" s="98">
         <f t="shared" si="29"/>
@@ -10292,14 +10358,14 @@
         <v>4.41</v>
       </c>
       <c r="L178" s="101">
-        <v>6.0715340174885273E-2</v>
+        <v>6.5509338900171507E-2</v>
       </c>
       <c r="M178" s="101">
-        <v>5.2915898347729869E-2</v>
+        <v>5.7094064005629386E-2</v>
       </c>
       <c r="N178" s="102">
         <f>(M178-M186)/M186*100</f>
-        <v>-24.002596630655447</v>
+        <v>-36.92614978204189</v>
       </c>
       <c r="P178" s="98">
         <f t="shared" si="30"/>
@@ -10314,14 +10380,14 @@
         <v>15</v>
       </c>
       <c r="S178" s="101">
-        <v>0.11301264800526262</v>
+        <v>0.13698264163169366</v>
       </c>
       <c r="T178" s="101">
-        <v>9.8495137746554731E-2</v>
+        <v>0.11938596603605221</v>
       </c>
       <c r="U178" s="102">
         <f>(T178-T186)/T186*100</f>
-        <v>41.45795397925437</v>
+        <v>31.889937614910931</v>
       </c>
       <c r="W178" s="98">
         <f t="shared" si="32"/>
@@ -10336,14 +10402,14 @@
         <v>1.7999999999999998</v>
       </c>
       <c r="Z178" s="101">
-        <v>7.4349853240913533E-2</v>
+        <v>9.8319846867344574E-2</v>
       </c>
       <c r="AA178" s="101">
-        <v>6.4798933266822442E-2</v>
+        <v>8.5689761556319952E-2</v>
       </c>
       <c r="AB178" s="102">
         <f>(AA178-AA186)/AA186*100</f>
-        <v>-6.9362739148656729</v>
+        <v>-5.3354621054306746</v>
       </c>
       <c r="AD178" s="98">
         <f t="shared" si="34"/>
@@ -10358,14 +10424,14 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="AG178" s="101">
-        <v>6.8924323671502322E-2</v>
+        <v>9.4433487901048288E-2</v>
       </c>
       <c r="AH178" s="101">
-        <v>5.6445840319745061E-2</v>
+        <v>7.7336668609242584E-2</v>
       </c>
       <c r="AI178" s="102">
         <f>(AH178-AH186)/AH186*100</f>
-        <v>-18.9329213101168</v>
+        <v>-14.563422009435623</v>
       </c>
       <c r="AK178" s="98">
         <f t="shared" si="36"/>
@@ -10380,14 +10446,14 @@
         <v>8</v>
       </c>
       <c r="AN178" s="101">
-        <v>0.1158463255156767</v>
+        <v>0.17577130958175433</v>
       </c>
       <c r="AO178" s="101">
-        <v>0.10096480341357415</v>
+        <v>0.15319187413731794</v>
       </c>
       <c r="AP178" s="102">
         <f>(AO178-AO186)/AO186*100</f>
-        <v>45.004868682478879</v>
+        <v>69.236530841328531</v>
       </c>
       <c r="AR178" s="98">
         <f t="shared" si="38"/>
@@ -10402,14 +10468,14 @@
         <v>49</v>
       </c>
       <c r="AU178" s="101">
-        <v>0.12345872687476768</v>
+        <v>0.14742872050119865</v>
       </c>
       <c r="AV178" s="101">
-        <v>0.10759932205975978</v>
+        <v>0.1284901503492572</v>
       </c>
       <c r="AW178" s="102">
         <f>(AV178-AV186)/AV186*100</f>
-        <v>54.533312977278179</v>
+        <v>41.947654957840953</v>
       </c>
     </row>
     <row r="179" spans="2:49">
@@ -10426,14 +10492,14 @@
         <v>21000000</v>
       </c>
       <c r="E179" s="101">
-        <v>4.7285947842341497E-2</v>
+        <v>7.1255941468772538E-2</v>
       </c>
       <c r="F179" s="101">
-        <v>4.1211634524225528E-2</v>
+        <v>6.2102462813723038E-2</v>
       </c>
       <c r="G179" s="102">
         <f>(F179-F186)/F186*100</f>
-        <v>-40.812169683557165</v>
+        <v>-31.393192866900034</v>
       </c>
       <c r="I179" s="98">
         <f t="shared" si="29"/>
@@ -10448,14 +10514,14 @@
         <v>6.615000000000002</v>
       </c>
       <c r="L179" s="101">
-        <v>6.3112339537528372E-2</v>
+        <v>7.0303337625457707E-2</v>
       </c>
       <c r="M179" s="101">
-        <v>5.500498117667961E-2</v>
+        <v>6.1272229663528896E-2</v>
       </c>
       <c r="N179" s="102">
         <f>(M179-M186)/M186*100</f>
-        <v>-21.002272051823535</v>
+        <v>-32.310381059286648</v>
       </c>
       <c r="P179" s="98">
         <f t="shared" si="30"/>
@@ -10470,14 +10536,14 @@
         <v>22.5</v>
       </c>
       <c r="S179" s="101">
-        <v>0.10887248388910854</v>
+        <v>0.13284247751553957</v>
       </c>
       <c r="T179" s="101">
-        <v>9.4886815650651365E-2</v>
+        <v>0.11577764394014886</v>
       </c>
       <c r="U179" s="102">
         <f>(T179-T186)/T186*100</f>
-        <v>36.275709731847556</v>
+        <v>27.903695413047057</v>
       </c>
       <c r="W179" s="98">
         <f t="shared" si="32"/>
@@ -10492,14 +10558,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="Z179" s="101">
-        <v>7.4978362843307653E-2</v>
+        <v>9.8948356469738707E-2</v>
       </c>
       <c r="AA179" s="101">
-        <v>6.5346705051268703E-2</v>
+        <v>8.623753334076624E-2</v>
       </c>
       <c r="AB179" s="102">
         <f>(AA179-AA186)/AA186*100</f>
-        <v>-6.149568320578167</v>
+        <v>-4.7303190649495797</v>
       </c>
       <c r="AD179" s="98">
         <f t="shared" si="34"/>
@@ -10514,14 +10580,14 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="AG179" s="101">
-        <v>6.9941368159059006E-2</v>
+        <v>9.5220881491958426E-2</v>
       </c>
       <c r="AH179" s="101">
-        <v>5.7799099741444447E-2</v>
+        <v>7.8689928030941936E-2</v>
       </c>
       <c r="AI179" s="102">
         <f>(AH179-AH186)/AH186*100</f>
-        <v>-16.989380609769483</v>
+        <v>-13.068428027891594</v>
       </c>
       <c r="AK179" s="98">
         <f t="shared" si="36"/>
@@ -10536,14 +10602,14 @@
         <v>9.5</v>
       </c>
       <c r="AN179" s="101">
-        <v>0.10638448592629601</v>
+        <v>0.15684763040299293</v>
       </c>
       <c r="AO179" s="101">
-        <v>9.2718423825614599E-2</v>
+        <v>0.13669911496139883</v>
       </c>
       <c r="AP179" s="102">
         <f>(AO179-AO186)/AO186*100</f>
-        <v>33.161482187089675</v>
+        <v>51.016391146242043</v>
       </c>
       <c r="AR179" s="98">
         <f t="shared" si="38"/>
@@ -10558,14 +10624,14 @@
         <v>53.5</v>
       </c>
       <c r="AU179" s="101">
-        <v>0.11480632429791557</v>
+        <v>0.13877631792434661</v>
       </c>
       <c r="AV179" s="101">
-        <v>0.10005839988257118</v>
+        <v>0.1209492281720687</v>
       </c>
       <c r="AW179" s="102">
         <f>(AV179-AV186)/AV186*100</f>
-        <v>43.70309895141682</v>
+        <v>33.616929090045488</v>
       </c>
     </row>
     <row r="180" spans="2:49">
@@ -10582,14 +10648,14 @@
         <v>28000000</v>
       </c>
       <c r="E180" s="101">
-        <v>5.1943860304297006E-2</v>
+        <v>7.5913853930728054E-2</v>
       </c>
       <c r="F180" s="101">
-        <v>4.5271195446383E-2</v>
+        <v>6.616202373588051E-2</v>
       </c>
       <c r="G180" s="102">
         <f>(F180-F186)/F186*100</f>
-        <v>-34.981859728763297</v>
+        <v>-26.90845102877147</v>
       </c>
       <c r="I180" s="98">
         <f t="shared" si="29"/>
@@ -10604,14 +10670,14 @@
         <v>8.82</v>
       </c>
       <c r="L180" s="101">
-        <v>6.5509338900171507E-2</v>
+        <v>7.5097336350743921E-2</v>
       </c>
       <c r="M180" s="101">
-        <v>5.7094064005629386E-2</v>
+        <v>6.5450395321428378E-2</v>
       </c>
       <c r="N180" s="102">
         <f>(M180-M186)/M186*100</f>
-        <v>-18.001947472991574</v>
+        <v>-27.694612336531431</v>
       </c>
       <c r="P180" s="98">
         <f t="shared" si="30"/>
@@ -10626,14 +10692,14 @@
         <v>30</v>
       </c>
       <c r="S180" s="101">
-        <v>0.10473231977295445</v>
+        <v>0.12870231339938554</v>
       </c>
       <c r="T180" s="101">
-        <v>9.1278493554747986E-2</v>
+        <v>0.11216932184424551</v>
       </c>
       <c r="U180" s="102">
         <f>(T180-T186)/T186*100</f>
-        <v>31.093465484440724</v>
+        <v>23.917453211183194</v>
       </c>
       <c r="W180" s="98">
         <f t="shared" si="32"/>
@@ -10648,14 +10714,14 @@
         <v>2.6</v>
       </c>
       <c r="Z180" s="101">
-        <v>7.5625590767046696E-2</v>
+        <v>9.9595584393477765E-2</v>
       </c>
       <c r="AA180" s="101">
-        <v>6.5910790617152687E-2</v>
+        <v>8.6801618906650196E-2</v>
       </c>
       <c r="AB180" s="102">
         <f>(AA180-AA186)/AA186*100</f>
-        <v>-5.3394329997412822</v>
+        <v>-4.107153607868633</v>
       </c>
       <c r="AD180" s="98">
         <f t="shared" si="34"/>
@@ -10670,14 +10736,14 @@
         <v>6.6</v>
       </c>
       <c r="AG180" s="101">
-        <v>7.1068248620471119E-2</v>
+        <v>9.6127818464024684E-2</v>
       </c>
       <c r="AH180" s="101">
-        <v>5.924581259911383E-2</v>
+        <v>8.0136640888611319E-2</v>
       </c>
       <c r="AI180" s="102">
         <f>(AH180-AH186)/AH186*100</f>
-        <v>-14.911622808486044</v>
+        <v>-11.470192700239394</v>
       </c>
       <c r="AK180" s="98">
         <f t="shared" si="36"/>
@@ -10692,14 +10758,14 @@
         <v>11</v>
       </c>
       <c r="AN180" s="101">
-        <v>9.9503148043110085E-2</v>
+        <v>0.14308495463662105</v>
       </c>
       <c r="AO180" s="101">
-        <v>8.672105685255313E-2</v>
+        <v>0.12470438101527585</v>
       </c>
       <c r="AP180" s="102">
         <f>(AO180-AO186)/AO186*100</f>
-        <v>24.548110190443023</v>
+        <v>37.765380458906435</v>
       </c>
       <c r="AR180" s="98">
         <f t="shared" si="38"/>
@@ -10714,14 +10780,14 @@
         <v>58</v>
       </c>
       <c r="AU180" s="101">
-        <v>0.10749653591402326</v>
+        <v>0.13146652954045432</v>
       </c>
       <c r="AV180" s="101">
-        <v>9.3687620801842869E-2</v>
+        <v>0.11457844909134039</v>
       </c>
       <c r="AW180" s="102">
         <f>(AV180-AV186)/AV186*100</f>
-        <v>34.553435377844281</v>
+        <v>26.578902063804406</v>
       </c>
     </row>
     <row r="181" spans="2:49">
@@ -10738,14 +10804,14 @@
         <v>35000000</v>
       </c>
       <c r="E181" s="101">
-        <v>5.6601772766252535E-2</v>
+        <v>8.0571766392683569E-2</v>
       </c>
       <c r="F181" s="101">
-        <v>4.9330756368540486E-2</v>
+        <v>7.0221584658037989E-2</v>
       </c>
       <c r="G181" s="102">
         <f>(F181-F186)/F186*100</f>
-        <v>-29.15154977396941</v>
+        <v>-22.423709190642896</v>
       </c>
       <c r="I181" s="98">
         <f t="shared" si="29"/>
@@ -10760,14 +10826,14 @@
         <v>11.025</v>
       </c>
       <c r="L181" s="101">
-        <v>6.7906338262814614E-2</v>
+        <v>7.9891335076030134E-2</v>
       </c>
       <c r="M181" s="101">
-        <v>5.9183146834579141E-2</v>
+        <v>6.9628560979327903E-2</v>
       </c>
       <c r="N181" s="102">
         <f>(M181-M186)/M186*100</f>
-        <v>-15.001622894159642</v>
+        <v>-23.078843613776172</v>
       </c>
       <c r="P181" s="98">
         <f t="shared" si="30"/>
@@ -10782,14 +10848,14 @@
         <v>37.5</v>
       </c>
       <c r="S181" s="101">
-        <v>0.10059215565680041</v>
+        <v>0.12456214928323145</v>
       </c>
       <c r="T181" s="101">
-        <v>8.7670171458844648E-2</v>
+        <v>0.10856099974834216</v>
       </c>
       <c r="U181" s="102">
         <f>(T181-T186)/T186*100</f>
-        <v>25.911221237033949</v>
+        <v>19.931211009319323</v>
       </c>
       <c r="W181" s="98">
         <f t="shared" si="32"/>
@@ -10804,14 +10870,14 @@
         <v>3</v>
       </c>
       <c r="Z181" s="101">
-        <v>7.6291370006148163E-2</v>
+        <v>0.1002613636325792</v>
       </c>
       <c r="AA181" s="101">
-        <v>6.6491044411940689E-2</v>
+        <v>8.7381872701438185E-2</v>
       </c>
       <c r="AB181" s="102">
         <f>(AA181-AA186)/AA186*100</f>
-        <v>-4.5060769937766114</v>
+        <v>-3.4661265312665757</v>
       </c>
       <c r="AD181" s="98">
         <f t="shared" si="34"/>
@@ -10826,14 +10892,14 @@
         <v>8</v>
       </c>
       <c r="AG181" s="101">
-        <v>7.2301889446502107E-2</v>
+        <v>9.7151998826723235E-2</v>
       </c>
       <c r="AH181" s="101">
-        <v>6.0782282054473016E-2</v>
+        <v>8.1673110343970526E-2</v>
       </c>
       <c r="AI181" s="102">
         <f>(AH181-AH186)/AH186*100</f>
-        <v>-12.704957276772197</v>
+        <v>-9.7728000556688652</v>
       </c>
       <c r="AK181" s="98">
         <f t="shared" si="36"/>
@@ -10848,14 +10914,14 @@
         <v>12.5</v>
       </c>
       <c r="AN181" s="101">
-        <v>9.4273331251888762E-2</v>
+        <v>0.13262532105417843</v>
       </c>
       <c r="AO181" s="101">
-        <v>8.2163057953026405E-2</v>
+        <v>0.11558838321622242</v>
       </c>
       <c r="AP181" s="102">
         <f>(AO181-AO186)/AO186*100</f>
-        <v>18.001947472991557</v>
+        <v>27.694612336531403</v>
       </c>
       <c r="AR181" s="98">
         <f t="shared" si="38"/>
@@ -10870,14 +10936,14 @@
         <v>62.5</v>
       </c>
       <c r="AU181" s="101">
-        <v>0.10123935705741147</v>
+        <v>0.12520935068384254</v>
       </c>
       <c r="AV181" s="101">
-        <v>8.8234233908739468E-2</v>
+        <v>0.10912506219823698</v>
       </c>
       <c r="AW181" s="102">
         <f>(AV181-AV186)/AV186*100</f>
-        <v>26.721323358866233</v>
+        <v>20.554350929342053</v>
       </c>
     </row>
     <row r="182" spans="2:49">
@@ -10894,14 +10960,14 @@
         <v>42000000</v>
       </c>
       <c r="E182" s="101">
-        <v>6.1259685228208058E-2</v>
+        <v>8.5229678854639127E-2</v>
       </c>
       <c r="F182" s="101">
-        <v>5.3390317290697965E-2</v>
+        <v>7.4281145580195496E-2</v>
       </c>
       <c r="G182" s="102">
         <f>(F182-F186)/F186*100</f>
-        <v>-23.321239819175535</v>
+        <v>-17.938967352514293</v>
       </c>
       <c r="I182" s="98">
         <f t="shared" si="29"/>
@@ -10916,14 +10982,14 @@
         <v>13.23</v>
       </c>
       <c r="L182" s="101">
-        <v>7.0303337625457707E-2</v>
+        <v>8.4685333801316348E-2</v>
       </c>
       <c r="M182" s="101">
-        <v>6.1272229663528896E-2</v>
+        <v>7.3806726637227399E-2</v>
       </c>
       <c r="N182" s="102">
         <f>(M182-M186)/M186*100</f>
-        <v>-12.001298315327711</v>
+        <v>-18.463074891020945</v>
       </c>
       <c r="P182" s="98">
         <f t="shared" si="30"/>
@@ -10938,14 +11004,14 @@
         <v>45</v>
       </c>
       <c r="S182" s="101">
-        <v>9.6451991540646362E-2</v>
+        <v>0.12042198516707736</v>
       </c>
       <c r="T182" s="101">
-        <v>8.4061849362941296E-2</v>
+        <v>0.10495267765243876</v>
       </c>
       <c r="U182" s="102">
         <f>(T182-T186)/T186*100</f>
-        <v>20.728976989627157</v>
+        <v>15.944968807455409</v>
       </c>
       <c r="W182" s="98">
         <f t="shared" si="32"/>
@@ -10960,14 +11026,14 @@
         <v>3.4</v>
       </c>
       <c r="Z182" s="101">
-        <v>7.6975513323089911E-2</v>
+        <v>0.10094550694952094</v>
       </c>
       <c r="AA182" s="101">
-        <v>6.7087303250486133E-2</v>
+        <v>8.7978131539983614E-2</v>
       </c>
       <c r="AB182" s="102">
         <f>(AA182-AA186)/AA186*100</f>
-        <v>-3.6497346679277869</v>
+        <v>-2.8074181115989907</v>
       </c>
       <c r="AD182" s="98">
         <f t="shared" si="34"/>
@@ -10982,14 +11048,14 @@
         <v>9.4</v>
       </c>
       <c r="AG182" s="101">
-        <v>7.3637950166637822E-2</v>
+        <v>9.8289591990963668E-2</v>
       </c>
       <c r="AH182" s="101">
-        <v>6.2403866788449745E-2</v>
+        <v>8.3294695077947276E-2</v>
       </c>
       <c r="AI182" s="102">
         <f>(AH182-AH186)/AH186*100</f>
-        <v>-10.376049841132154</v>
+        <v>-7.9813775250097692</v>
       </c>
       <c r="AK182" s="98">
         <f t="shared" si="36"/>
@@ -11004,14 +11070,14 @@
         <v>14</v>
       </c>
       <c r="AN182" s="101">
-        <v>9.0164189487357702E-2</v>
+        <v>0.12440703752511635</v>
       </c>
       <c r="AO182" s="101">
-        <v>7.8581773103398228E-2</v>
+        <v>0.10842581351696612</v>
       </c>
       <c r="AP182" s="102">
         <f>(AO182-AO186)/AO186*100</f>
-        <v>12.858533909279634</v>
+        <v>19.781865954665275</v>
       </c>
       <c r="AR182" s="98">
         <f t="shared" si="38"/>
@@ -11026,14 +11092,14 @@
         <v>67</v>
       </c>
       <c r="AU182" s="101">
-        <v>9.5822694763628175E-2</v>
+        <v>0.1197926883900592</v>
       </c>
       <c r="AV182" s="101">
-        <v>8.3513391523664923E-2</v>
+        <v>0.1044042198131624</v>
       </c>
       <c r="AW182" s="102">
         <f>(AV182-AV186)/AV186*100</f>
-        <v>19.941286088706189</v>
+        <v>15.339067857717954</v>
       </c>
     </row>
     <row r="183" spans="2:49">
@@ -11050,14 +11116,14 @@
         <v>49000000</v>
       </c>
       <c r="E183" s="101">
-        <v>6.591759769016356E-2</v>
+        <v>8.9887591316594614E-2</v>
       </c>
       <c r="F183" s="101">
-        <v>5.7449878212855437E-2</v>
+        <v>7.8340706502352961E-2</v>
       </c>
       <c r="G183" s="102">
         <f>(F183-F186)/F186*100</f>
-        <v>-17.49092986438167</v>
+        <v>-13.454225514385735</v>
       </c>
       <c r="I183" s="98">
         <f t="shared" si="29"/>
@@ -11072,14 +11138,14 @@
         <v>15.435</v>
       </c>
       <c r="L183" s="101">
-        <v>7.2700336988100814E-2</v>
+        <v>8.9479332526602534E-2</v>
       </c>
       <c r="M183" s="101">
-        <v>6.3361312492478644E-2</v>
+        <v>7.7984892295126881E-2</v>
       </c>
       <c r="N183" s="102">
         <f>(M183-M186)/M186*100</f>
-        <v>-9.0009737364957871</v>
+        <v>-13.847306168265733</v>
       </c>
       <c r="P183" s="98">
         <f t="shared" si="30"/>
@@ -11094,14 +11160,14 @@
         <v>52.5</v>
       </c>
       <c r="S183" s="101">
-        <v>9.2311827424492301E-2</v>
+        <v>0.11628182105092333</v>
       </c>
       <c r="T183" s="101">
-        <v>8.0453527267037958E-2</v>
+        <v>0.10134435555653545</v>
       </c>
       <c r="U183" s="102">
         <f>(T183-T186)/T186*100</f>
-        <v>15.546732742220382</v>
+        <v>11.958726605591588</v>
       </c>
       <c r="W183" s="98">
         <f t="shared" si="32"/>
@@ -11116,14 +11182,14 @@
         <v>3.8</v>
       </c>
       <c r="Z183" s="101">
-        <v>7.7677814308242235E-2</v>
+        <v>0.10164780793467328</v>
       </c>
       <c r="AA183" s="101">
-        <v>6.7699387238367714E-2</v>
+        <v>8.859021552786521E-2</v>
       </c>
       <c r="AB183" s="102">
         <f>(AA183-AA186)/AA186*100</f>
-        <v>-2.7706643851693888</v>
+        <v>-2.1312270846535677</v>
       </c>
       <c r="AD183" s="98">
         <f t="shared" si="34"/>
@@ -11138,14 +11204,14 @@
         <v>10.8</v>
       </c>
       <c r="AG183" s="101">
-        <v>7.5071116694679932E-2</v>
+        <v>9.9535549711212798E-2</v>
       </c>
       <c r="AH183" s="101">
-        <v>6.4105217860947181E-2</v>
+        <v>8.4996046150444704E-2</v>
       </c>
       <c r="AI183" s="102">
         <f>(AH183-AH186)/AH186*100</f>
-        <v>-7.9325826079050419</v>
+        <v>-6.1018342732930142</v>
       </c>
       <c r="AK183" s="98">
         <f t="shared" si="36"/>
@@ -11160,14 +11226,14 @@
         <v>15.5</v>
       </c>
       <c r="AN183" s="101">
-        <v>8.6850365483703673E-2</v>
+        <v>0.11777938951780821</v>
       </c>
       <c r="AO183" s="101">
-        <v>7.5693640160149761E-2</v>
+        <v>0.10264954763046909</v>
       </c>
       <c r="AP183" s="102">
         <f>(AO183-AO186)/AO186*100</f>
-        <v>8.7106197449959168</v>
+        <v>13.400618872515155</v>
       </c>
       <c r="AR183" s="98">
         <f t="shared" si="38"/>
@@ -11182,14 +11248,14 @@
         <v>71.5</v>
       </c>
       <c r="AU183" s="101">
-        <v>9.1087850101230147E-2</v>
+        <v>0.1150578437276612</v>
       </c>
       <c r="AV183" s="101">
-        <v>7.9386781047201094E-2</v>
+        <v>0.10027760933669863</v>
       </c>
       <c r="AW183" s="102">
         <f>(AV183-AV186)/AV186*100</f>
-        <v>14.014680083321441</v>
+        <v>10.780253983920678</v>
       </c>
     </row>
     <row r="184" spans="2:49">
@@ -11206,14 +11272,14 @@
         <v>56000000</v>
       </c>
       <c r="E184" s="101">
-        <v>7.0575510152119075E-2</v>
+        <v>9.4545503778550158E-2</v>
       </c>
       <c r="F184" s="101">
-        <v>6.1509439135012924E-2</v>
+        <v>8.2400267424510454E-2</v>
       </c>
       <c r="G184" s="102">
         <f>(F184-F186)/F186*100</f>
-        <v>-11.660619909587783</v>
+        <v>-8.9694836762571466</v>
       </c>
       <c r="I184" s="98">
         <f>I185-1</f>
@@ -11228,14 +11294,14 @@
         <v>17.64</v>
       </c>
       <c r="L184" s="101">
-        <v>7.5097336350743921E-2</v>
+        <v>9.4273331251888762E-2</v>
       </c>
       <c r="M184" s="101">
-        <v>6.5450395321428378E-2</v>
+        <v>8.2163057953026405E-2</v>
       </c>
       <c r="N184" s="102">
         <f>(M184-M186)/M186*100</f>
-        <v>-6.0006491576638847</v>
+        <v>-9.2315374455104724</v>
       </c>
       <c r="P184" s="98">
         <f>P185-1</f>
@@ -11250,14 +11316,14 @@
         <v>60</v>
       </c>
       <c r="S184" s="101">
-        <v>8.8171663308338227E-2</v>
+        <v>0.1121416569347693</v>
       </c>
       <c r="T184" s="101">
-        <v>7.6845205171134578E-2</v>
+        <v>9.7736033460632116E-2</v>
       </c>
       <c r="U184" s="102">
         <f>(T184-T186)/T186*100</f>
-        <v>10.364488494813548</v>
+        <v>7.9724844037277354</v>
       </c>
       <c r="W184" s="98">
         <f>W185-1</f>
@@ -11272,14 +11338,14 @@
         <v>4.2</v>
       </c>
       <c r="Z184" s="101">
-        <v>7.8398048485870217E-2</v>
+        <v>0.10236804211230127</v>
       </c>
       <c r="AA184" s="101">
-        <v>6.832710073581573E-2</v>
+        <v>8.9217929025313239E-2</v>
       </c>
       <c r="AB184" s="102">
         <f>(AA184-AA186)/AA186*100</f>
-        <v>-1.869147121823421</v>
+        <v>-1.4377695806663953</v>
       </c>
       <c r="AD184" s="98">
         <f>AD185-1</f>
@@ -11294,14 +11360,14 @@
         <v>12.2</v>
       </c>
       <c r="AG184" s="101">
-        <v>7.6595386819410638E-2</v>
+        <v>0.10088392067819964</v>
       </c>
       <c r="AH184" s="101">
-        <v>6.5880513130804855E-2</v>
+        <v>8.677134142030235E-2</v>
       </c>
       <c r="AI184" s="102">
         <f>(AH184-AH186)/AH186*100</f>
-        <v>-5.3829172911325998</v>
+        <v>-4.1406022276532051</v>
       </c>
       <c r="AK184" s="98">
         <f>AK185-1</f>
@@ -11316,14 +11382,14 @@
         <v>17</v>
       </c>
       <c r="AN184" s="101">
-        <v>8.412133395128267E-2</v>
+        <v>0.11232132645296623</v>
       </c>
       <c r="AO184" s="101">
-        <v>7.3315177736298046E-2</v>
+        <v>9.7892622782765698E-2</v>
       </c>
       <c r="AP184" s="102">
         <f>(AO184-AO186)/AO186*100</f>
-        <v>5.2946904332328026</v>
+        <v>8.145474216626873</v>
       </c>
       <c r="AR184" s="98">
         <f>AR185-1</f>
@@ -11338,14 +11404,14 @@
         <v>76</v>
       </c>
       <c r="AU184" s="101">
-        <v>8.6913710727800297E-2</v>
+        <v>0.11088370435423132</v>
       </c>
       <c r="AV184" s="101">
-        <v>7.5748848127160637E-2</v>
+        <v>9.6639676416658146E-2</v>
       </c>
       <c r="AW184" s="102">
         <f>(AV184-AV186)/AV186*100</f>
-        <v>8.7899089996270252</v>
+        <v>6.7612996478098664</v>
       </c>
     </row>
     <row r="185" spans="2:49">
@@ -11361,14 +11427,14 @@
         <v>63000000</v>
       </c>
       <c r="E185" s="101">
-        <v>7.5233422614074619E-2</v>
+        <v>9.9203416240505646E-2</v>
       </c>
       <c r="F185" s="101">
-        <v>6.556900005717041E-2</v>
+        <v>8.6459828346667919E-2</v>
       </c>
       <c r="G185" s="102">
         <f>(F185-F186)/F186*100</f>
-        <v>-5.8303099547938961</v>
+        <v>-4.4847418381285884</v>
       </c>
       <c r="I185" s="98">
         <v>-1</v>
@@ -11382,14 +11448,14 @@
         <v>19.844999999999999</v>
       </c>
       <c r="L185" s="101">
-        <v>7.7494335713387E-2</v>
+        <v>9.9067329977174948E-2</v>
       </c>
       <c r="M185" s="101">
-        <v>6.7539478150378113E-2</v>
+        <v>8.6341223610925888E-2</v>
       </c>
       <c r="N185" s="102">
         <f>(M185-M186)/M186*100</f>
-        <v>-3.0003245788319819</v>
+        <v>-4.6157687227552602</v>
       </c>
       <c r="P185" s="98">
         <v>-1</v>
@@ -11403,14 +11469,14 @@
         <v>67.5</v>
       </c>
       <c r="S185" s="101">
-        <v>8.4031499192184181E-2</v>
+        <v>0.10800149281861519</v>
       </c>
       <c r="T185" s="101">
-        <v>7.3236883075231241E-2</v>
+        <v>9.4127711364728722E-2</v>
       </c>
       <c r="U185" s="102">
         <f>(T185-T186)/T186*100</f>
-        <v>5.182244247406774</v>
+        <v>3.9862422018638219</v>
       </c>
       <c r="W185" s="98">
         <v>-1</v>
@@ -11424,14 +11490,14 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="Z185" s="101">
-        <v>7.9135974457807789E-2</v>
+        <v>0.10310596808423884</v>
       </c>
       <c r="AA185" s="101">
-        <v>6.8970233354470653E-2</v>
+        <v>8.9861061643968176E-2</v>
       </c>
       <c r="AB185" s="102">
         <f>(AA185-AA186)/AA186*100</f>
-        <v>-0.94548503602236011</v>
+        <v>-0.727278023167089</v>
       </c>
       <c r="AD185" s="98">
         <v>-1</v>
@@ -11445,14 +11511,14 @@
         <v>13.6</v>
       </c>
       <c r="AG185" s="101">
-        <v>7.8204333486494138E-2</v>
+        <v>0.10232814697158793</v>
       </c>
       <c r="AH185" s="101">
-        <v>6.7723674922725283E-2</v>
+        <v>8.8614503212222778E-2</v>
       </c>
       <c r="AI185" s="102">
         <f>(AH185-AH186)/AH186*100</f>
-        <v>-2.735782601005015</v>
+        <v>-2.1043956129061847</v>
       </c>
       <c r="AK185" s="98">
         <v>-1</v>
@@ -11466,14 +11532,14 @@
         <v>18.5</v>
       </c>
       <c r="AN185" s="101">
-        <v>8.183484807276778E-2</v>
+        <v>0.10774835469593648</v>
       </c>
       <c r="AO185" s="101">
-        <v>7.1322411921719578E-2</v>
+        <v>9.3907091153608777E-2</v>
       </c>
       <c r="AP185" s="102">
         <f>(AO185-AO186)/AO186*100</f>
-        <v>2.4326956044582975</v>
+        <v>3.7425151806123358</v>
       </c>
       <c r="AR185" s="98">
         <v>-1</v>
@@ -11487,14 +11553,14 @@
         <v>80.5</v>
       </c>
       <c r="AU185" s="101">
-        <v>8.3206245321586256E-2</v>
+        <v>0.10717623894801728</v>
       </c>
       <c r="AV185" s="101">
-        <v>7.2517640626752047E-2</v>
+        <v>9.3408468916249557E-2</v>
       </c>
       <c r="AW185" s="102">
         <f>(AV185-AV186)/AV186*100</f>
-        <v>4.149273813488529</v>
+        <v>3.1916693989661447</v>
       </c>
     </row>
     <row r="186" spans="2:49">
@@ -11509,10 +11575,10 @@
         <v>70000000</v>
       </c>
       <c r="E186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="F186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="G186" s="102">
         <f>(F186-F186)/F186*100</f>
@@ -11529,10 +11595,10 @@
         <v>22.05</v>
       </c>
       <c r="L186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="M186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="N186" s="102">
         <f>(M186-M186)/M186*100</f>
@@ -11549,10 +11615,10 @@
         <v>75</v>
       </c>
       <c r="S186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="T186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="U186" s="102">
         <f>(T186-T186)/T186*100</f>
@@ -11569,10 +11635,10 @@
         <v>5</v>
       </c>
       <c r="Z186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AA186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AB186" s="102">
         <f>(AA186-AA186)/AA186*100</f>
@@ -11589,10 +11655,10 @@
         <v>15</v>
       </c>
       <c r="AG186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AH186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AI186" s="102">
         <f>(AH186-AH186)/AH186*100</f>
@@ -11609,10 +11675,10 @@
         <v>20</v>
       </c>
       <c r="AN186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AO186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AP186" s="102">
         <f>(AO186-AO186)/AO186*100</f>
@@ -11629,10 +11695,10 @@
         <v>85</v>
       </c>
       <c r="AU186" s="101">
-        <v>7.9891335076030134E-2</v>
+        <v>0.10386132870246118</v>
       </c>
       <c r="AV186" s="101">
-        <v>6.9628560979327903E-2</v>
+        <v>9.0519389268825412E-2</v>
       </c>
       <c r="AW186" s="102">
         <f>(AV186-AV186)/AV186*100</f>
@@ -11652,14 +11718,14 @@
         <v>83000000</v>
       </c>
       <c r="E187" s="101">
-        <v>8.8541743933947509E-2</v>
+        <v>0.11251173756037855</v>
       </c>
       <c r="F187" s="101">
-        <v>7.7167745549048913E-2</v>
+        <v>9.8058573838546409E-2</v>
       </c>
       <c r="G187" s="102">
         <f>(F187-F186)/F186*100</f>
-        <v>10.827718487474309</v>
+        <v>8.3288062708101673</v>
       </c>
       <c r="I187" s="98">
         <v>1</v>
@@ -11673,14 +11739,14 @@
         <v>29.844999999999999</v>
       </c>
       <c r="L187" s="101">
-        <v>8.836508112219929E-2</v>
+        <v>0.12080882079479952</v>
       </c>
       <c r="M187" s="101">
-        <v>7.7013776694367944E-2</v>
+        <v>0.10528982069890551</v>
       </c>
       <c r="N187" s="102">
         <f>(M187-M186)/M186*100</f>
-        <v>10.606589610882015</v>
+        <v>16.31742276366306</v>
       </c>
       <c r="P187" s="98">
         <v>1</v>
@@ -11694,14 +11760,14 @@
         <v>77.5</v>
       </c>
       <c r="S187" s="101">
-        <v>7.8511280370645448E-2</v>
+        <v>0.1024812739970765</v>
       </c>
       <c r="T187" s="101">
-        <v>6.8425786947360095E-2</v>
+        <v>8.9316615236857633E-2</v>
       </c>
       <c r="U187" s="102">
         <f>(T187-T186)/T186*100</f>
-        <v>-1.7274147491356313</v>
+        <v>-1.328747400621284</v>
       </c>
       <c r="W187" s="98">
         <v>1</v>
@@ -11715,14 +11781,14 @@
         <v>6</v>
       </c>
       <c r="Z187" s="101">
-        <v>8.1854197574490764E-2</v>
+        <v>0.1058241912009218</v>
       </c>
       <c r="AA187" s="101">
-        <v>7.1339275802631774E-2</v>
+        <v>9.2230104092129284E-2</v>
       </c>
       <c r="AB187" s="102">
         <f>(AA187-AA186)/AA186*100</f>
-        <v>2.4569153796123508</v>
+        <v>1.8898877214288017</v>
       </c>
       <c r="AD187" s="98">
         <v>1</v>
@@ -11736,14 +11802,14 @@
         <v>18.5</v>
       </c>
       <c r="AG187" s="101">
-        <v>8.4407251401700467E-2</v>
+        <v>0.10803761169695321</v>
       </c>
       <c r="AH187" s="101">
-        <v>7.4621688936990949E-2</v>
+        <v>9.5512517226488444E-2</v>
       </c>
       <c r="AI187" s="102">
         <f>(AH187-AH186)/AH186*100</f>
-        <v>7.1710917006391401</v>
+        <v>5.5160866616481359</v>
       </c>
       <c r="AK187" s="98">
         <v>1</v>
@@ -11757,14 +11823,14 @@
         <v>23</v>
       </c>
       <c r="AN187" s="101">
-        <v>7.676481416823476E-2</v>
+        <v>9.7608286886870427E-2</v>
       </c>
       <c r="AO187" s="101">
-        <v>6.6903670332871687E-2</v>
+        <v>8.5069607975912981E-2</v>
       </c>
       <c r="AP187" s="102">
         <f>(AO187-AO186)/AO186*100</f>
-        <v>-3.9134668419547136</v>
+        <v>-6.0205678992460001</v>
       </c>
       <c r="AR187" s="98">
         <v>1</v>
@@ -11778,14 +11844,14 @@
         <v>86.5</v>
       </c>
       <c r="AU187" s="101">
-        <v>7.8863010317774762E-2</v>
+        <v>0.10283300394420583</v>
       </c>
       <c r="AV187" s="101">
-        <v>6.873233395960672E-2</v>
+        <v>8.9623162249104243E-2</v>
       </c>
       <c r="AW187" s="102">
         <f>(AV187-AV186)/AV186*100</f>
-        <v>-1.2871543043769986</v>
+        <v>-0.9900939754018272</v>
       </c>
     </row>
     <row r="188" spans="2:49">
@@ -11802,14 +11868,14 @@
         <v>96000000</v>
       </c>
       <c r="E188" s="101">
-        <v>9.7192152791864897E-2</v>
+        <v>0.12116214641829594</v>
       </c>
       <c r="F188" s="101">
-        <v>8.4706930118769938E-2</v>
+        <v>0.10559775840826746</v>
       </c>
       <c r="G188" s="102">
         <f>(F188-F186)/F186*100</f>
-        <v>21.655436974948643</v>
+        <v>16.657612541620399</v>
       </c>
       <c r="I188" s="98">
         <f>I187+1</f>
@@ -11824,14 +11890,14 @@
         <v>37.64</v>
       </c>
       <c r="L188" s="101">
-        <v>9.6838827168368447E-2</v>
+        <v>0.13775631288713786</v>
       </c>
       <c r="M188" s="101">
-        <v>8.4398992409407986E-2</v>
+        <v>0.12006025212898562</v>
       </c>
       <c r="N188" s="102">
         <f>(M188-M186)/M186*100</f>
-        <v>21.21317922176403</v>
+        <v>32.634845527326142</v>
       </c>
       <c r="P188" s="98">
         <f>P187+1</f>
@@ -11846,14 +11912,14 @@
         <v>80</v>
       </c>
       <c r="S188" s="101">
-        <v>7.7131225665260761E-2</v>
+        <v>0.10110121929169179</v>
       </c>
       <c r="T188" s="101">
-        <v>6.722301291539233E-2</v>
+        <v>8.8113841204889826E-2</v>
       </c>
       <c r="U188" s="102">
         <f>(T188-T186)/T186*100</f>
-        <v>-3.4548294982712022</v>
+        <v>-2.6574948012425992</v>
       </c>
       <c r="W188" s="98">
         <f>W187+1</f>
@@ -11868,14 +11934,14 @@
         <v>7</v>
       </c>
       <c r="Z188" s="101">
-        <v>8.3919706231235819E-2</v>
+        <v>0.10788969985766687</v>
       </c>
       <c r="AA188" s="101">
-        <v>7.3139450944562187E-2</v>
+        <v>9.403027923405971E-2</v>
       </c>
       <c r="AB188" s="102">
         <f>(AA188-AA186)/AA186*100</f>
-        <v>5.0423129759591561</v>
+        <v>3.8786054497204145</v>
       </c>
       <c r="AD188" s="98">
         <f>AD187+1</f>
@@ -11890,14 +11956,14 @@
         <v>22</v>
       </c>
       <c r="AG188" s="101">
-        <v>8.9272679003172206E-2</v>
+        <v>0.11262096826848228</v>
       </c>
       <c r="AH188" s="101">
-        <v>7.9876524862556447E-2</v>
+        <v>0.10076735315205396</v>
       </c>
       <c r="AI188" s="102">
         <f>(AH188-AH186)/AH186*100</f>
-        <v>14.71804635783163</v>
+        <v>11.321291455904586</v>
       </c>
       <c r="AK188" s="98">
         <f>AK187+1</f>
@@ -11912,14 +11978,14 @@
         <v>26</v>
       </c>
       <c r="AN188" s="101">
-        <v>7.435979808531526E-2</v>
+        <v>9.2798254721031467E-2</v>
       </c>
       <c r="AO188" s="101">
-        <v>6.4807600604828458E-2</v>
+        <v>8.0877468519826551E-2</v>
       </c>
       <c r="AP188" s="102">
         <f>(AO188-AO186)/AO186*100</f>
-        <v>-6.9238259511506266</v>
+        <v>-10.651773975589016</v>
       </c>
       <c r="AR188" s="98">
         <f>AR187+1</f>
@@ -11934,14 +12000,14 @@
         <v>88</v>
       </c>
       <c r="AU188" s="101">
-        <v>7.7869742085368995E-2</v>
+        <v>0.10183973571180008</v>
       </c>
       <c r="AV188" s="101">
-        <v>6.7866660133739654E-2</v>
+        <v>8.8757488423237191E-2</v>
       </c>
       <c r="AW188" s="102">
         <f>(AV188-AV186)/AV186*100</f>
-        <v>-2.5304283483775309</v>
+        <v>-1.9464347470967904</v>
       </c>
     </row>
     <row r="189" spans="2:49">
@@ -11958,14 +12024,14 @@
         <v>109000000</v>
       </c>
       <c r="E189" s="101">
-        <v>0.10584256164978229</v>
+        <v>0.12981255527621333</v>
       </c>
       <c r="F189" s="101">
-        <v>9.2246114688490963E-2</v>
+        <v>0.11313694297798849</v>
       </c>
       <c r="G189" s="102">
         <f>(F189-F186)/F186*100</f>
-        <v>32.483155462422971</v>
+        <v>24.986418812430593</v>
       </c>
       <c r="I189" s="98">
         <f t="shared" ref="I189:I196" si="42">I188+1</f>
@@ -11980,14 +12046,14 @@
         <v>45.435000000000002</v>
       </c>
       <c r="L189" s="101">
-        <v>0.1053125732145376</v>
+        <v>0.15470380497947622</v>
       </c>
       <c r="M189" s="101">
-        <v>9.1784208124448041E-2</v>
+        <v>0.13483068355906574</v>
       </c>
       <c r="N189" s="102">
         <f>(M189-M186)/M186*100</f>
-        <v>31.819768832646062</v>
+        <v>48.952268290989231</v>
       </c>
       <c r="P189" s="98">
         <f t="shared" ref="P189:P196" si="43">P188+1</f>
@@ -12002,14 +12068,14 @@
         <v>82.5</v>
       </c>
       <c r="S189" s="101">
-        <v>7.575117095987606E-2</v>
+        <v>9.9721164586307115E-2</v>
       </c>
       <c r="T189" s="101">
-        <v>6.6020238883424537E-2</v>
+        <v>8.6911067172922046E-2</v>
       </c>
       <c r="U189" s="102">
         <f>(T189-T186)/T186*100</f>
-        <v>-5.1822442474068131</v>
+        <v>-3.9862422018638837</v>
       </c>
       <c r="W189" s="98">
         <f t="shared" ref="W189:W196" si="44">W188+1</f>
@@ -12024,14 +12090,14 @@
         <v>8</v>
       </c>
       <c r="Z189" s="101">
-        <v>8.6082871062161656E-2</v>
+        <v>0.11005286468859271</v>
       </c>
       <c r="AA189" s="101">
-        <v>7.5024737430200689E-2</v>
+        <v>9.5915565719698212E-2</v>
       </c>
       <c r="AB189" s="102">
         <f>(AA189-AA186)/AA186*100</f>
-        <v>7.7499468249456749</v>
+        <v>5.9613487170656665</v>
       </c>
       <c r="AD189" s="98">
         <f t="shared" ref="AD189:AD196" si="45">AD188+1</f>
@@ -12046,14 +12112,14 @@
         <v>25.5</v>
       </c>
       <c r="AG189" s="101">
-        <v>9.4403878804406344E-2</v>
+        <v>0.11751872324834546</v>
       </c>
       <c r="AH189" s="101">
-        <v>8.5320722220240064E-2</v>
+        <v>0.1062115505097376</v>
       </c>
       <c r="AI189" s="102">
         <f>(AH189-AH186)/AH186*100</f>
-        <v>22.536960437213434</v>
+        <v>17.335690582610368</v>
       </c>
       <c r="AK189" s="98">
         <f t="shared" ref="AK189:AK196" si="46">AK188+1</f>
@@ -12068,14 +12134,14 @@
         <v>29</v>
       </c>
       <c r="AN189" s="101">
-        <v>7.2452371536792903E-2</v>
+        <v>8.8983401623986713E-2</v>
       </c>
       <c r="AO189" s="101">
-        <v>6.3145200475690735E-2</v>
+        <v>7.7552668261551064E-2</v>
       </c>
       <c r="AP189" s="102">
         <f>(AO189-AO186)/AO186*100</f>
-        <v>-9.3113521412025424</v>
+        <v>-14.324799484412834</v>
       </c>
       <c r="AR189" s="98">
         <f t="shared" ref="AR189:AR196" si="47">AR188+1</f>
@@ -12090,14 +12156,14 @@
         <v>89.5</v>
       </c>
       <c r="AU189" s="101">
-        <v>7.6909767760194717E-2</v>
+        <v>0.10087976138662576</v>
       </c>
       <c r="AV189" s="101">
-        <v>6.7030003307622335E-2</v>
+        <v>8.7920831597119845E-2</v>
       </c>
       <c r="AW189" s="102">
         <f>(AV189-AV186)/AV186*100</f>
-        <v>-3.7320284020763492</v>
+        <v>-2.8707194035394386</v>
       </c>
     </row>
     <row r="190" spans="2:49">
@@ -12114,14 +12180,14 @@
         <v>122000000</v>
       </c>
       <c r="E190" s="101">
-        <v>0.11449297050769967</v>
+        <v>0.13846296413413073</v>
       </c>
       <c r="F190" s="101">
-        <v>9.9785299258212001E-2</v>
+        <v>0.12067612754770954</v>
       </c>
       <c r="G190" s="102">
         <f>(F190-F186)/F186*100</f>
-        <v>43.310873949897321</v>
+        <v>33.315225083240826</v>
       </c>
       <c r="I190" s="98">
         <f t="shared" si="42"/>
@@ -12136,14 +12202,14 @@
         <v>53.230000000000004</v>
       </c>
       <c r="L190" s="101">
-        <v>0.11378631926070676</v>
+        <v>0.17165129707181448</v>
       </c>
       <c r="M190" s="101">
-        <v>9.9169423839488083E-2</v>
+        <v>0.14960111498914583</v>
       </c>
       <c r="N190" s="102">
         <f>(M190-M186)/M186*100</f>
-        <v>42.42635844352808</v>
+        <v>65.269691054652284</v>
       </c>
       <c r="P190" s="98">
         <f t="shared" si="43"/>
@@ -12158,14 +12224,14 @@
         <v>85</v>
       </c>
       <c r="S190" s="101">
-        <v>7.4371116254491373E-2</v>
+        <v>9.8341109880922442E-2</v>
       </c>
       <c r="T190" s="101">
-        <v>6.4817464851456744E-2</v>
+        <v>8.5708293140954281E-2</v>
       </c>
       <c r="U190" s="102">
         <f>(T190-T186)/T186*100</f>
-        <v>-6.9096589965424258</v>
+        <v>-5.3149896024851522</v>
       </c>
       <c r="W190" s="98">
         <f t="shared" si="44"/>
@@ -12180,14 +12246,14 @@
         <v>9</v>
       </c>
       <c r="Z190" s="101">
-        <v>8.8338411803235234E-2</v>
+        <v>0.11230840542966626</v>
       </c>
       <c r="AA190" s="101">
-        <v>7.6990533293816429E-2</v>
+        <v>9.7881361583313939E-2</v>
       </c>
       <c r="AB190" s="102">
         <f>(AA190-AA186)/AA186*100</f>
-        <v>10.573207619031837</v>
+        <v>8.1330335676756125</v>
       </c>
       <c r="AD190" s="98">
         <f t="shared" si="45"/>
@@ -12202,14 +12268,14 @@
         <v>29</v>
       </c>
       <c r="AG190" s="101">
-        <v>9.9733340569101325E-2</v>
+        <v>0.12265478964449068</v>
       </c>
       <c r="AH190" s="101">
-        <v>9.0897922104066692E-2</v>
+        <v>0.11178875039356423</v>
       </c>
       <c r="AI190" s="102">
         <f>(AH190-AH186)/AH186*100</f>
-        <v>30.546891714527135</v>
+        <v>23.497022346861897</v>
       </c>
       <c r="AK190" s="98">
         <f t="shared" si="46"/>
@@ -12224,14 +12290,14 @@
         <v>32</v>
       </c>
       <c r="AN190" s="101">
-        <v>7.0902587466118466E-2</v>
+        <v>8.5883833482637867E-2</v>
       </c>
       <c r="AO190" s="101">
-        <v>6.1794500370766309E-2</v>
+        <v>7.4851268051702252E-2</v>
       </c>
       <c r="AP190" s="102">
         <f>(AO190-AO186)/AO186*100</f>
-        <v>-11.251217170619764</v>
+        <v>-17.309132710332161</v>
       </c>
       <c r="AR190" s="98">
         <f t="shared" si="47"/>
@@ -12246,14 +12312,14 @@
         <v>91</v>
       </c>
       <c r="AU190" s="101">
-        <v>7.5981440940246003E-2</v>
+        <v>9.9951434566677017E-2</v>
       </c>
       <c r="AV190" s="101">
-        <v>6.6220928574673765E-2</v>
+        <v>8.7111756864171247E-2</v>
       </c>
       <c r="AW190" s="102">
         <f>(AV190-AV186)/AV186*100</f>
-        <v>-4.8940152671916239</v>
+        <v>-3.7645331372421693</v>
       </c>
     </row>
     <row r="191" spans="2:49">
@@ -12270,14 +12336,14 @@
         <v>135000000</v>
       </c>
       <c r="E191" s="101">
-        <v>0.12314337936561712</v>
+        <v>0.14711337299204813</v>
       </c>
       <c r="F191" s="101">
-        <v>0.1073244838279331</v>
+        <v>0.12821531211743059</v>
       </c>
       <c r="G191" s="102">
         <f>(F191-F186)/F186*100</f>
-        <v>54.138592437371749</v>
+        <v>41.644031354051052</v>
       </c>
       <c r="I191" s="98">
         <f t="shared" si="42"/>
@@ -12292,14 +12358,14 @@
         <v>61.025000000000006</v>
       </c>
       <c r="L191" s="101">
-        <v>0.12226006530687591</v>
+        <v>0.18859878916415282</v>
       </c>
       <c r="M191" s="101">
-        <v>0.10655463955452811</v>
+        <v>0.16437154641922591</v>
       </c>
       <c r="N191" s="102">
         <f>(M191-M186)/M186*100</f>
-        <v>53.03294805441007</v>
+        <v>81.587113818315331</v>
       </c>
       <c r="P191" s="98">
         <f t="shared" si="43"/>
@@ -12314,14 +12380,14 @@
         <v>87.5</v>
       </c>
       <c r="S191" s="101">
-        <v>7.2991061549106701E-2</v>
+        <v>9.6961055175537741E-2</v>
       </c>
       <c r="T191" s="101">
-        <v>6.3614690819488978E-2</v>
+        <v>8.4505519108986474E-2</v>
       </c>
       <c r="U191" s="102">
         <f>(T191-T186)/T186*100</f>
-        <v>-8.6370737456779967</v>
+        <v>-6.6437370031064678</v>
       </c>
       <c r="W191" s="98">
         <f t="shared" si="44"/>
@@ -12336,14 +12402,14 @@
         <v>10</v>
       </c>
       <c r="Z191" s="101">
-        <v>9.0680865211248296E-2</v>
+        <v>0.11465085883767939</v>
       </c>
       <c r="AA191" s="101">
-        <v>7.9032077095855219E-2</v>
+        <v>9.9922905385352784E-2</v>
       </c>
       <c r="AB191" s="102">
         <f>(AA191-AA186)/AA186*100</f>
-        <v>13.505257015607627</v>
+        <v>10.388399869337068</v>
       </c>
       <c r="AD191" s="98">
         <f t="shared" si="45"/>
@@ -12358,14 +12424,14 @@
         <v>32.5</v>
       </c>
       <c r="AG191" s="101">
-        <v>0.10520881787445208</v>
+        <v>0.12796937741933898</v>
       </c>
       <c r="AH191" s="101">
-        <v>9.6566138649695418E-2</v>
+        <v>0.11745696693919298</v>
       </c>
       <c r="AI191" s="102">
         <f>(AH191-AH186)/AH186*100</f>
-        <v>38.687540416590025</v>
+        <v>29.758903465828823</v>
       </c>
       <c r="AK191" s="98">
         <f t="shared" si="46"/>
@@ -12380,14 +12446,14 @@
         <v>35</v>
       </c>
       <c r="AN191" s="101">
-        <v>6.9618480664702539E-2</v>
+        <v>8.3315619879805972E-2</v>
       </c>
       <c r="AO191" s="101">
-        <v>6.0675348855257535E-2</v>
+        <v>7.2612965020684664E-2</v>
       </c>
       <c r="AP191" s="102">
         <f>(AO191-AO186)/AO186*100</f>
-        <v>-12.858533909279693</v>
+        <v>-19.781865954665321</v>
       </c>
       <c r="AR191" s="98">
         <f t="shared" si="47"/>
@@ -12402,14 +12468,14 @@
         <v>92.5</v>
       </c>
       <c r="AU191" s="101">
-        <v>7.5083222017160445E-2</v>
+        <v>9.9053215643591486E-2</v>
       </c>
       <c r="AV191" s="101">
-        <v>6.5438094103334288E-2</v>
+        <v>8.6328922392831797E-2</v>
       </c>
       <c r="AW191" s="102">
         <f>(AV191-AV186)/AV186*100</f>
-        <v>-6.0183160718167459</v>
+        <v>-4.6293583174194017</v>
       </c>
     </row>
     <row r="192" spans="2:49">
@@ -12426,14 +12492,14 @@
         <v>148000000</v>
       </c>
       <c r="E192" s="101">
-        <v>0.13179378822353452</v>
+        <v>0.15576378184996559</v>
       </c>
       <c r="F192" s="101">
-        <v>0.11486366839765413</v>
+        <v>0.13575449668715167</v>
       </c>
       <c r="G192" s="102">
         <f>(F192-F186)/F186*100</f>
-        <v>64.966310924846098</v>
+        <v>49.972837624861313</v>
       </c>
       <c r="I192" s="98">
         <f t="shared" si="42"/>
@@ -12448,14 +12514,14 @@
         <v>68.820000000000007</v>
       </c>
       <c r="L192" s="101">
-        <v>0.1307338113530451</v>
+        <v>0.20554628125649108</v>
       </c>
       <c r="M192" s="101">
-        <v>0.11393985526956819</v>
+        <v>0.17914197784930599</v>
       </c>
       <c r="N192" s="102">
         <f>(M192-M186)/M186*100</f>
-        <v>63.639537665292146</v>
+        <v>97.904536581978377</v>
       </c>
       <c r="P192" s="98">
         <f t="shared" si="43"/>
@@ -12470,14 +12536,14 @@
         <v>90</v>
       </c>
       <c r="S192" s="101">
-        <v>7.1611006843722E-2</v>
+        <v>9.5581000470153041E-2</v>
       </c>
       <c r="T192" s="101">
-        <v>6.2411916787521178E-2</v>
+        <v>8.3302745077018694E-2</v>
       </c>
       <c r="U192" s="102">
         <f>(T192-T186)/T186*100</f>
-        <v>-10.364488494813617</v>
+        <v>-7.9724844037277514</v>
       </c>
       <c r="W192" s="98">
         <f t="shared" si="44"/>
@@ -12492,14 +12558,14 @@
         <v>11</v>
       </c>
       <c r="Z192" s="101">
-        <v>9.3104683008965766E-2</v>
+        <v>0.11707467663539685</v>
       </c>
       <c r="AA192" s="101">
-        <v>8.1144533286135939E-2</v>
+        <v>0.10203536157563349</v>
       </c>
       <c r="AB192" s="102">
         <f>(AA192-AA186)/AA186*100</f>
-        <v>16.539150234954629</v>
+        <v>12.722105617182001</v>
       </c>
       <c r="AD192" s="98">
         <f t="shared" si="45"/>
@@ -12514,14 +12580,14 @@
         <v>36</v>
       </c>
       <c r="AG192" s="101">
-        <v>0.1107908738058761</v>
+        <v>0.13341674257763667</v>
       </c>
       <c r="AH192" s="101">
-        <v>0.10229499446274076</v>
+        <v>0.12318582275223829</v>
       </c>
       <c r="AI192" s="102">
         <f>(AH192-AH186)/AH186*100</f>
-        <v>46.915278764860915</v>
+        <v>36.087774947751541</v>
       </c>
       <c r="AK192" s="98">
         <f t="shared" si="46"/>
@@ -12536,14 +12602,14 @@
         <v>38</v>
       </c>
       <c r="AN192" s="101">
-        <v>6.8537127568773309E-2</v>
+        <v>8.1152913687947553E-2</v>
       </c>
       <c r="AO192" s="101">
-        <v>5.9732905473776438E-2</v>
+        <v>7.072807825772251E-2</v>
       </c>
       <c r="AP192" s="102">
         <f>(AO192-AO186)/AO186*100</f>
-        <v>-14.212063794467038</v>
+        <v>-21.864167634103744</v>
       </c>
       <c r="AR192" s="98">
         <f t="shared" si="47"/>
@@ -12558,14 +12624,14 @@
         <v>94</v>
       </c>
       <c r="AU192" s="101">
-        <v>7.4213669655449968E-2</v>
+        <v>9.8183663281881009E-2</v>
       </c>
       <c r="AV192" s="101">
-        <v>6.4680243710867349E-2</v>
+        <v>8.5571072000364873E-2</v>
       </c>
       <c r="AW192" s="102">
         <f>(AV192-AV186)/AV186*100</f>
-        <v>-7.1067349358687224</v>
+        <v>-5.4665826939739679</v>
       </c>
     </row>
     <row r="193" spans="2:49">
@@ -12582,14 +12648,14 @@
         <v>161000000</v>
       </c>
       <c r="E193" s="101">
-        <v>0.14044419708145187</v>
+        <v>0.16441419070788285</v>
       </c>
       <c r="F193" s="101">
-        <v>0.12240285296737513</v>
+        <v>0.14329368125687261</v>
       </c>
       <c r="G193" s="102">
         <f>(F193-F186)/F186*100</f>
-        <v>75.794029412320384</v>
+        <v>58.301643895671418</v>
       </c>
       <c r="I193" s="98">
         <f t="shared" si="42"/>
@@ -12604,14 +12670,14 @@
         <v>76.614999999999995</v>
       </c>
       <c r="L193" s="101">
-        <v>0.13920755739921425</v>
+        <v>0.22249377334882947</v>
       </c>
       <c r="M193" s="101">
-        <v>0.12132507098460822</v>
+        <v>0.19391240927938613</v>
       </c>
       <c r="N193" s="102">
         <f>(M193-M186)/M186*100</f>
-        <v>74.24612727617415</v>
+        <v>114.22195934564148</v>
       </c>
       <c r="P193" s="98">
         <f t="shared" si="43"/>
@@ -12626,14 +12692,14 @@
         <v>92.5</v>
       </c>
       <c r="S193" s="101">
-        <v>7.0230952138337327E-2</v>
+        <v>9.4200945764768354E-2</v>
       </c>
       <c r="T193" s="101">
-        <v>6.1209142755553399E-2</v>
+        <v>8.2099971045050901E-2</v>
       </c>
       <c r="U193" s="102">
         <f>(T193-T186)/T186*100</f>
-        <v>-12.09190324394921</v>
+        <v>-9.3012318043490492</v>
       </c>
       <c r="W193" s="98">
         <f t="shared" si="44"/>
@@ -12648,14 +12714,14 @@
         <v>12</v>
       </c>
       <c r="Z193" s="101">
-        <v>9.5604318664949367E-2</v>
+        <v>0.11957431229138039</v>
       </c>
       <c r="AA193" s="101">
-        <v>8.3323067836010747E-2</v>
+        <v>0.10421389612550823</v>
       </c>
       <c r="AB193" s="102">
         <f>(AA193-AA186)/AA186*100</f>
-        <v>19.667944682568724</v>
+        <v>15.12881048723465</v>
       </c>
       <c r="AD193" s="98">
         <f t="shared" si="45"/>
@@ -12670,14 +12736,14 @@
         <v>39.5</v>
       </c>
       <c r="AG193" s="101">
-        <v>0.11645015824870428</v>
+        <v>0.13896241754564043</v>
       </c>
       <c r="AH193" s="101">
-        <v>0.10806291044229326</v>
+        <v>0.12895373873179078</v>
       </c>
       <c r="AI193" s="102">
         <f>(AH193-AH186)/AH186*100</f>
-        <v>55.199115021745413</v>
+        <v>42.459797589688371</v>
       </c>
       <c r="AK193" s="98">
         <f t="shared" si="46"/>
@@ -12692,14 +12758,14 @@
         <v>41</v>
       </c>
       <c r="AN193" s="101">
-        <v>6.7614021267370331E-2</v>
+        <v>7.9306701085141554E-2</v>
       </c>
       <c r="AO193" s="101">
-        <v>5.892838063592673E-2</v>
+        <v>6.9119028582023054E-2</v>
       </c>
       <c r="AP193" s="102">
         <f>(AO193-AO186)/AO186*100</f>
-        <v>-15.36751613548061</v>
+        <v>-23.641742238502459</v>
       </c>
       <c r="AR193" s="98">
         <f t="shared" si="47"/>
@@ -12714,14 +12780,14 @@
         <v>95.5</v>
       </c>
       <c r="AU193" s="101">
-        <v>7.3371433074735662E-2</v>
+        <v>9.7341426701166675E-2</v>
       </c>
       <c r="AV193" s="101">
-        <v>6.3946200137011966E-2</v>
+        <v>8.4837028426509448E-2</v>
       </c>
       <c r="AW193" s="102">
         <f>(AV193-AV186)/AV186*100</f>
-        <v>-8.1609626314164068</v>
+        <v>-6.2775068283331334</v>
       </c>
     </row>
     <row r="194" spans="2:49">
@@ -12738,14 +12804,14 @@
         <v>174000000</v>
       </c>
       <c r="E194" s="101">
-        <v>0.1490946059393693</v>
+        <v>0.17306459956580028</v>
       </c>
       <c r="F194" s="101">
-        <v>0.12994203753709618</v>
+        <v>0.15083286582659367</v>
       </c>
       <c r="G194" s="102">
         <f>(F194-F186)/F186*100</f>
-        <v>86.621747899794755</v>
+        <v>66.630450166481651</v>
       </c>
       <c r="I194" s="98">
         <f t="shared" si="42"/>
@@ -12760,14 +12826,14 @@
         <v>84.41</v>
       </c>
       <c r="L194" s="101">
-        <v>0.14768130344538341</v>
+        <v>0.2394412654411677</v>
       </c>
       <c r="M194" s="101">
-        <v>0.12871028669964829</v>
+        <v>0.20868284070946613</v>
       </c>
       <c r="N194" s="102">
         <f>(M194-M186)/M186*100</f>
-        <v>84.852716887056204</v>
+        <v>130.53938210930446</v>
       </c>
       <c r="P194" s="98">
         <f t="shared" si="43"/>
@@ -12782,14 +12848,14 @@
         <v>95</v>
       </c>
       <c r="S194" s="101">
-        <v>6.885089743295264E-2</v>
+        <v>9.2820891059383667E-2</v>
       </c>
       <c r="T194" s="101">
-        <v>6.0006368723585619E-2</v>
+        <v>8.0897197013083122E-2</v>
       </c>
       <c r="U194" s="102">
         <f>(T194-T186)/T186*100</f>
-        <v>-13.819317993084802</v>
+        <v>-10.629979204970335</v>
       </c>
       <c r="W194" s="98">
         <f t="shared" si="44"/>
@@ -12804,14 +12870,14 @@
         <v>13</v>
       </c>
       <c r="Z194" s="101">
-        <v>9.8174301996567348E-2</v>
+        <v>0.12214429562299838</v>
       </c>
       <c r="AA194" s="101">
-        <v>8.5562913257934442E-2</v>
+        <v>0.10645374154743194</v>
       </c>
       <c r="AB194" s="102">
         <f>(AA194-AA186)/AA186*100</f>
-        <v>22.884793329762061</v>
+        <v>17.603247665850379</v>
       </c>
       <c r="AD194" s="98">
         <f t="shared" si="45"/>
@@ -12826,14 +12892,14 @@
         <v>43</v>
       </c>
       <c r="AG194" s="101">
-        <v>0.12216497504752885</v>
+        <v>0.14458062433043856</v>
       </c>
       <c r="AH194" s="101">
-        <v>0.11385472196223595</v>
+        <v>0.13474555025173349</v>
       </c>
       <c r="AI194" s="102">
         <f>(AH194-AH186)/AH186*100</f>
-        <v>63.517269868665529</v>
+        <v>48.858218487936064</v>
       </c>
       <c r="AK194" s="98">
         <f t="shared" si="46"/>
@@ -12848,14 +12914,14 @@
         <v>44</v>
       </c>
       <c r="AN194" s="101">
-        <v>6.6816793097976848E-2</v>
+        <v>7.7712244746354547E-2</v>
       </c>
       <c r="AO194" s="101">
-        <v>5.8233563730511077E-2</v>
+        <v>6.772939477119172E-2</v>
       </c>
       <c r="AP194" s="102">
         <f>(AO194-AO186)/AO186*100</f>
-        <v>-16.365406793628694</v>
+        <v>-25.176920305937696</v>
       </c>
       <c r="AR194" s="98">
         <f t="shared" si="47"/>
@@ -12870,14 +12936,14 @@
         <v>97</v>
       </c>
       <c r="AU194" s="101">
-        <v>7.2555245048064015E-2</v>
+        <v>9.6525238674495056E-2</v>
       </c>
       <c r="AV194" s="101">
-        <v>6.3234858941729394E-2</v>
+        <v>8.4125687231226917E-2</v>
       </c>
       <c r="AW194" s="102">
         <f>(AV194-AV186)/AV186*100</f>
-        <v>-9.1825853466894749</v>
+        <v>-7.063350834825469</v>
       </c>
     </row>
     <row r="195" spans="2:49">
@@ -12894,14 +12960,14 @@
         <v>187000000</v>
       </c>
       <c r="E195" s="101">
-        <v>0.15774501479728664</v>
+        <v>0.18171500842371777</v>
       </c>
       <c r="F195" s="101">
-        <v>0.13748122210681718</v>
+        <v>0.15837205039631477</v>
       </c>
       <c r="G195" s="102">
         <f>(F195-F186)/F186*100</f>
-        <v>97.449466387269041</v>
+        <v>74.959256437291941</v>
       </c>
       <c r="I195" s="98">
         <f t="shared" si="42"/>
@@ -12916,14 +12982,14 @@
         <v>92.204999999999998</v>
       </c>
       <c r="L195" s="101">
-        <v>0.15615504949155259</v>
+        <v>0.2563887575335061</v>
       </c>
       <c r="M195" s="101">
-        <v>0.13609550241468835</v>
+        <v>0.22345327213954633</v>
       </c>
       <c r="N195" s="102">
         <f>(M195-M186)/M186*100</f>
-        <v>95.459306497938229</v>
+        <v>146.85680487296761</v>
       </c>
       <c r="P195" s="98">
         <f t="shared" si="43"/>
@@ -12938,14 +13004,14 @@
         <v>97.5</v>
       </c>
       <c r="S195" s="101">
-        <v>6.7470842727567953E-2</v>
+        <v>9.1440836353999008E-2</v>
       </c>
       <c r="T195" s="101">
-        <v>5.8803594691617833E-2</v>
+        <v>7.9694422981115356E-2</v>
       </c>
       <c r="U195" s="102">
         <f>(T195-T186)/T186*100</f>
-        <v>-15.546732742220401</v>
+        <v>-11.958726605591604</v>
       </c>
       <c r="W195" s="98">
         <f t="shared" si="44"/>
@@ -12960,14 +13026,14 @@
         <v>14</v>
       </c>
       <c r="Z195" s="101">
-        <v>0.10080930128046049</v>
+        <v>0.12477929490689155</v>
       </c>
       <c r="AA195" s="101">
-        <v>8.7859422737272042E-2</v>
+        <v>0.10875025102676956</v>
       </c>
       <c r="AB195" s="102">
         <f>(AA195-AA186)/AA186*100</f>
-        <v>26.1830224573458</v>
+        <v>20.140283651055082</v>
       </c>
       <c r="AD195" s="98">
         <f t="shared" si="45"/>
@@ -12982,14 +13048,14 @@
         <v>46.5</v>
       </c>
       <c r="AG195" s="101">
-        <v>0.12791931520040789</v>
+        <v>0.15025212614237662</v>
       </c>
       <c r="AH195" s="101">
-        <v>0.1196598339414524</v>
+        <v>0.14055066223094989</v>
       </c>
       <c r="AI195" s="102">
         <f>(AH195-AH186)/AH186*100</f>
-        <v>71.85452673218154</v>
+        <v>55.271332878242355</v>
       </c>
       <c r="AK195" s="98">
         <f t="shared" si="46"/>
@@ -13004,14 +13070,14 @@
         <v>47</v>
       </c>
       <c r="AN195" s="101">
-        <v>6.6121338737442095E-2</v>
+        <v>7.6321336025285069E-2</v>
       </c>
       <c r="AO195" s="101">
-        <v>5.7627446855574006E-2</v>
+        <v>6.6517161021317633E-2</v>
       </c>
       <c r="AP195" s="102">
         <f>(AO195-AO186)/AO186*100</f>
-        <v>-17.235907154991928</v>
+        <v>-26.516118194551353</v>
       </c>
       <c r="AR195" s="98">
         <f t="shared" si="47"/>
@@ -13026,14 +13092,14 @@
         <v>98.5</v>
       </c>
       <c r="AU195" s="101">
-        <v>7.1763915539971246E-2</v>
+        <v>9.5733909166402301E-2</v>
       </c>
       <c r="AV195" s="101">
-        <v>6.2545182960516379E-2</v>
+        <v>8.3436011250013903E-2</v>
       </c>
       <c r="AW195" s="102">
         <f>(AV195-AV186)/AV186*100</f>
-        <v>-10.173092649314574</v>
+        <v>-7.8252605060946889</v>
       </c>
     </row>
     <row r="196" spans="2:49" ht="12.75" thickBot="1">
@@ -13049,14 +13115,14 @@
         <v>200000000</v>
       </c>
       <c r="E196" s="111">
-        <v>0.16639542365520404</v>
+        <v>0.19036541728163514</v>
       </c>
       <c r="F196" s="111">
-        <v>0.14502040667653823</v>
+        <v>0.1659112349660358</v>
       </c>
       <c r="G196" s="112">
         <f>(F196-F186)/F186*100</f>
-        <v>108.27718487474343</v>
+        <v>83.288062708102146</v>
       </c>
       <c r="I196" s="108">
         <f t="shared" si="42"/>
@@ -13070,14 +13136,14 @@
         <v>100</v>
       </c>
       <c r="L196" s="111">
-        <v>0.16462879553772178</v>
+        <v>0.27333624962584435</v>
       </c>
       <c r="M196" s="111">
-        <v>0.14348071812972843</v>
+        <v>0.23822370356962638</v>
       </c>
       <c r="N196" s="112">
         <f>(M196-M186)/M186*100</f>
-        <v>106.06589610882031</v>
+        <v>163.17422763663063</v>
       </c>
       <c r="P196" s="108">
         <f t="shared" si="43"/>
@@ -13091,14 +13157,14 @@
         <v>100</v>
       </c>
       <c r="S196" s="111">
-        <v>6.6090788022183281E-2</v>
+        <v>9.0060781648614321E-2</v>
       </c>
       <c r="T196" s="111">
-        <v>5.7600820659650054E-2</v>
+        <v>7.8491648949147577E-2</v>
       </c>
       <c r="U196" s="112">
         <f>(T196-T186)/T186*100</f>
-        <v>-17.274147491355993</v>
+        <v>-13.287474006212888</v>
       </c>
       <c r="W196" s="108">
         <f t="shared" si="44"/>
@@ -13112,14 +13178,14 @@
         <v>15</v>
       </c>
       <c r="Z196" s="111">
-        <v>0.10350417312444919</v>
+        <v>0.12747416675088025</v>
       </c>
       <c r="AA196" s="111">
-        <v>9.0208113597702283E-2</v>
+        <v>0.11109894188719978</v>
       </c>
       <c r="AB196" s="112">
         <f>(AA196-AA186)/AA186*100</f>
-        <v>29.556194080306021</v>
+        <v>22.734966270328005</v>
       </c>
       <c r="AD196" s="108">
         <f t="shared" si="45"/>
@@ -13133,14 +13199,14 @@
         <v>50</v>
       </c>
       <c r="AG196" s="111">
-        <v>0.13370135053852894</v>
+        <v>0.15596254989601399</v>
       </c>
       <c r="AH196" s="111">
-        <v>0.12547086575706737</v>
+        <v>0.14636169404656488</v>
       </c>
       <c r="AI196" s="112">
         <f>(AH196-AH186)/AH186*100</f>
-        <v>80.200285618883527</v>
+        <v>61.690987123099575</v>
       </c>
       <c r="AK196" s="108">
         <f t="shared" si="46"/>
@@ -13154,14 +13220,14 @@
         <v>50</v>
       </c>
       <c r="AN196" s="111">
-        <v>6.5509338900171493E-2</v>
+        <v>7.5097336350743893E-2</v>
       </c>
       <c r="AO196" s="111">
-        <v>5.7094064005629379E-2</v>
+        <v>6.5450395321428378E-2</v>
       </c>
       <c r="AP196" s="112">
         <f>(AO196-AO186)/AO186*100</f>
-        <v>-18.001947472991585</v>
+        <v>-27.694612336531431</v>
       </c>
       <c r="AR196" s="108">
         <f t="shared" si="47"/>
@@ -13175,14 +13241,14 @@
         <v>100</v>
       </c>
       <c r="AU196" s="111">
-        <v>7.0996325917121225E-2</v>
+        <v>9.496631954355228E-2</v>
       </c>
       <c r="AV196" s="111">
-        <v>6.1876197258739725E-2</v>
+        <v>8.2767025548237241E-2</v>
       </c>
       <c r="AW196" s="112">
         <f>(AV196-AV186)/AV186*100</f>
-        <v>-11.133884732860967</v>
+        <v>-8.5643128872258742</v>
       </c>
     </row>
     <row r="198" spans="2:49">
@@ -13277,5 +13343,6 @@
     <ignoredError sqref="B105" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>